--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_17_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1562035.281396878</v>
+        <v>1556863.328372657</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8914579.287706597</v>
+        <v>8914579.287706591</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5905776.662407208</v>
+        <v>5905776.662407209</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>281.8523431091344</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>319.9958482165468</v>
+        <v>218.0194367161228</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>319.9958482165468</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>319.9958482165468</v>
+        <v>319.9958482165469</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>110.8080339826013</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>76.46594728151749</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.862643306510179</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>170.6446426827978</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>97.98847402348953</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1514,7 +1514,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H13" t="n">
         <v>145.4738572861381</v>
       </c>
       <c r="I13" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.92859893709536</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>104.3957021004403</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>282.5325639126531</v>
       </c>
       <c r="V13" t="n">
-        <v>22.3493317375976</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,70 +1606,70 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>319.9958482165469</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>232.2551039378734</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>116.5673851837092</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>253.0257022040986</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>319.9958482165469</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>299.143563087602</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>302.7046282380792</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>76.46594728151749</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.862643306510179</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>112.5246600068256</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>78.57882481526602</v>
+        <v>149.2762144254865</v>
       </c>
       <c r="U15" t="n">
         <v>207.8879308598484</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.479098741011781</v>
       </c>
       <c r="H16" t="n">
-        <v>80.94396214047275</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T16" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.489798254283</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.7254940853221</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I17" t="n">
-        <v>55.27060472689227</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.8282526899614</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>102.7229728378049</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
@@ -1931,16 +1931,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>70.32093714985822</v>
       </c>
       <c r="G18" t="n">
         <v>117.7255881187514</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I18" t="n">
         <v>9.862643306510179</v>
@@ -1982,7 +1982,7 @@
         <v>207.8879308598484</v>
       </c>
       <c r="V18" t="n">
-        <v>161.9832295477046</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>122.3742257219592</v>
       </c>
       <c r="H19" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>79.92859893709536</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>229.301066964029</v>
@@ -2064,10 +2064,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>28.87699069537071</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>166.8777073998272</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>116.5673851837093</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>236.4773158865535</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H21" t="n">
         <v>76.46594728151749</v>
@@ -2222,13 +2222,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>70.32861439030101</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>6.936612971097971</v>
       </c>
     </row>
     <row r="22">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>184.2250660264325</v>
       </c>
       <c r="T22" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5325639126531</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>214.5501040517634</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.35111001444085</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.86589189484456</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>299.143563087602</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>116.5673851837093</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813955</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>372.4532178240505</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>117.7255881187515</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H24" t="n">
-        <v>76.46594728151754</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I24" t="n">
-        <v>9.86264330651024</v>
+        <v>9.862643306510179</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>112.5246600068257</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T24" t="n">
         <v>170.6446426827978</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8879308598482</v>
+        <v>207.8879308598486</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>93.90183513468361</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>108.7897211703015</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>79.92859893709536</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.2250660264325</v>
@@ -2535,7 +2535,7 @@
         <v>282.5325639126531</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>406.9123771362669</v>
+        <v>99.48998874285941</v>
       </c>
       <c r="H26" t="n">
-        <v>173.6733826869707</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T26" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>79.92859893709536</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.2250660264325</v>
       </c>
       <c r="T28" t="n">
-        <v>229.301066964029</v>
+        <v>222.6844824586122</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>93.93684942058411</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>392.983087599041</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>211.9907646989572</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2857,7 +2857,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>95.81899818677219</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>13.97323619758833</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.35111001444074</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>124.228958783965</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H32" t="n">
-        <v>299.1435630876019</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>55.27060472689222</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>253.0257022040986</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>81.74530471546203</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>76.46594728151749</v>
       </c>
       <c r="I33" t="n">
-        <v>9.862643306510179</v>
+        <v>9.862643306510186</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>131.5908453016127</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>79.92859893709536</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.2250660264325</v>
@@ -3243,16 +3243,16 @@
         <v>229.301066964029</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>93.93684942058411</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>355.1125924506007</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>172.771978687839</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>143.1384464937884</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>76.46594728151749</v>
       </c>
       <c r="I36" t="n">
-        <v>9.862643306510179</v>
+        <v>9.862643306510186</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>112.5246600068256</v>
+        <v>73.96263538730454</v>
       </c>
       <c r="T36" t="n">
         <v>170.6446426827978</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.087404989898</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>93.90183513468328</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>79.92859893709536</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.2250660264325</v>
@@ -3489,10 +3489,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>299.1435630876019</v>
+        <v>222.5802156384257</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>353.4446323354912</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>128.2725995961368</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>117.7255881187514</v>
@@ -3602,7 +3602,7 @@
         <v>76.46594728151749</v>
       </c>
       <c r="I39" t="n">
-        <v>9.862643306510172</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>112.5246600068256</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>170.6446426827978</v>
@@ -3644,7 +3644,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>226.9700970807696</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>93.90183513468328</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>169.6732191594299</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T40" t="n">
         <v>229.301066964029</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>110.0143531985329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>319.995848216547</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T41" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>319.995848216547</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>319.995848216547</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>69.86157841017724</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>52.52300934620283</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.862643306510179</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U42" t="n">
-        <v>70.24841292729157</v>
+        <v>207.8879308598484</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>103.182400879764</v>
+        <v>41.9647002051853</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>43.94208022879096</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T43" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>319.9958482165466</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>281.8523431091343</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>226.5817383822422</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>319.9958482165466</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="Y44" t="n">
-        <v>319.9958482165466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H45" t="n">
         <v>76.46594728151749</v>
       </c>
       <c r="I45" t="n">
-        <v>9.862643306510172</v>
+        <v>9.862643306510179</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>170.6446426827978</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8879308598484</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>19.48634286241753</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>57.19618382356126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.6211146840253</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>79.92859893709533</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T46" t="n">
         <v>229.301066964029</v>
@@ -4194,13 +4194,13 @@
         <v>282.5325639126531</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>51.57521906863759</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>49.88266324632659</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>633.5271338428604</v>
+        <v>301.6502147694601</v>
       </c>
       <c r="C11" t="n">
-        <v>348.8277973689872</v>
+        <v>301.6502147694601</v>
       </c>
       <c r="D11" t="n">
-        <v>348.8277973689872</v>
+        <v>301.6502147694601</v>
       </c>
       <c r="E11" t="n">
-        <v>25.59966785732374</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="F11" t="n">
-        <v>25.59966785732374</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="G11" t="n">
-        <v>25.59966785732374</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="H11" t="n">
-        <v>25.59966785732374</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="I11" t="n">
-        <v>25.59966785732374</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J11" t="n">
-        <v>87.12469248054285</v>
+        <v>87.12469248054286</v>
       </c>
       <c r="K11" t="n">
         <v>212.3147925332973</v>
@@ -5065,28 +5065,28 @@
         <v>1279.983392866187</v>
       </c>
       <c r="R11" t="n">
-        <v>1279.983392866187</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="S11" t="n">
-        <v>1279.983392866187</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="T11" t="n">
-        <v>1279.983392866187</v>
+        <v>948.1064737927871</v>
       </c>
       <c r="U11" t="n">
-        <v>1279.983392866187</v>
+        <v>948.1064737927871</v>
       </c>
       <c r="V11" t="n">
-        <v>956.7552633545238</v>
+        <v>948.1064737927871</v>
       </c>
       <c r="W11" t="n">
-        <v>956.7552633545238</v>
+        <v>624.8783442811236</v>
       </c>
       <c r="X11" t="n">
-        <v>956.7552633545238</v>
+        <v>624.8783442811236</v>
       </c>
       <c r="Y11" t="n">
-        <v>633.5271338428604</v>
+        <v>301.6502147694601</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>475.6436025038283</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="C12" t="n">
-        <v>363.7162954506956</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="D12" t="n">
-        <v>363.7162954506956</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="E12" t="n">
-        <v>227.2698045615833</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="F12" t="n">
-        <v>102.8379984447151</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="G12" t="n">
-        <v>102.8379984447151</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59966785732374</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="I12" t="n">
-        <v>25.59966785732374</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J12" t="n">
-        <v>50.01195051225359</v>
+        <v>244.746945491981</v>
       </c>
       <c r="K12" t="n">
-        <v>142.5370659719023</v>
+        <v>337.2720609516297</v>
       </c>
       <c r="L12" t="n">
-        <v>297.0581537666972</v>
+        <v>491.7931487464245</v>
       </c>
       <c r="M12" t="n">
-        <v>489.9589392463365</v>
+        <v>684.6939342260639</v>
       </c>
       <c r="N12" t="n">
-        <v>697.330853718656</v>
+        <v>892.0658486983835</v>
       </c>
       <c r="O12" t="n">
-        <v>1014.126743453037</v>
+        <v>1067.327770169457</v>
       </c>
       <c r="P12" t="n">
-        <v>1142.223393739379</v>
+        <v>1195.424420455799</v>
       </c>
       <c r="Q12" t="n">
-        <v>1279.983392866187</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="R12" t="n">
-        <v>1279.983392866187</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="S12" t="n">
-        <v>1279.983392866187</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="T12" t="n">
-        <v>1107.615066923967</v>
+        <v>1107.615066923968</v>
       </c>
       <c r="U12" t="n">
-        <v>1107.615066923967</v>
+        <v>1008.636810334584</v>
       </c>
       <c r="V12" t="n">
-        <v>885.0750652950342</v>
+        <v>786.0968087056513</v>
       </c>
       <c r="W12" t="n">
-        <v>654.957819428321</v>
+        <v>555.9795628389381</v>
       </c>
       <c r="X12" t="n">
-        <v>654.957819428321</v>
+        <v>366.6724851889497</v>
       </c>
       <c r="Y12" t="n">
-        <v>475.6436025038283</v>
+        <v>187.358268264457</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.0935401856661</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="C13" t="n">
-        <v>434.0935401856661</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="D13" t="n">
-        <v>434.0935401856661</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="E13" t="n">
-        <v>434.0935401856661</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="F13" t="n">
-        <v>276.767605398639</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="G13" t="n">
-        <v>276.767605398639</v>
+        <v>172.5429580453421</v>
       </c>
       <c r="H13" t="n">
-        <v>129.8243152106207</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="I13" t="n">
-        <v>25.59966785732374</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J13" t="n">
-        <v>50.15700549462022</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="K13" t="n">
-        <v>241.3069024933301</v>
+        <v>51.8944921133523</v>
       </c>
       <c r="L13" t="n">
-        <v>545.3199221171232</v>
+        <v>355.9075117371453</v>
       </c>
       <c r="M13" t="n">
-        <v>603.4106997156991</v>
+        <v>642.3225829005182</v>
       </c>
       <c r="N13" t="n">
-        <v>920.2065894500805</v>
+        <v>959.1184726348997</v>
       </c>
       <c r="O13" t="n">
-        <v>964.1009946995565</v>
+        <v>1254.814427419845</v>
       </c>
       <c r="P13" t="n">
-        <v>1197.774096528105</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="Q13" t="n">
-        <v>1279.983392866187</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="R13" t="n">
-        <v>1199.247434343869</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="S13" t="n">
-        <v>1199.247434343869</v>
+        <v>1174.533188724329</v>
       </c>
       <c r="T13" t="n">
-        <v>1199.247434343869</v>
+        <v>1174.533188724329</v>
       </c>
       <c r="U13" t="n">
-        <v>913.8610061492695</v>
+        <v>889.1467605297295</v>
       </c>
       <c r="V13" t="n">
-        <v>891.2859235860396</v>
+        <v>623.1674153505537</v>
       </c>
       <c r="W13" t="n">
-        <v>891.2859235860396</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="X13" t="n">
-        <v>657.2056013690227</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="Y13" t="n">
-        <v>434.0935401856661</v>
+        <v>339.8370132817313</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>650.9930126089894</v>
+        <v>583.4289124577483</v>
       </c>
       <c r="C14" t="n">
-        <v>650.9930126089894</v>
+        <v>583.4289124577483</v>
       </c>
       <c r="D14" t="n">
-        <v>650.9930126089894</v>
+        <v>583.4289124577483</v>
       </c>
       <c r="E14" t="n">
-        <v>650.9930126089894</v>
+        <v>583.4289124577483</v>
       </c>
       <c r="F14" t="n">
-        <v>327.7648830973258</v>
+        <v>583.4289124577483</v>
       </c>
       <c r="G14" t="n">
-        <v>327.7648830973258</v>
+        <v>260.2007829460848</v>
       </c>
       <c r="H14" t="n">
         <v>25.59966785732375</v>
@@ -5278,52 +5278,52 @@
         <v>25.59966785732375</v>
       </c>
       <c r="J14" t="n">
-        <v>87.12469248054299</v>
+        <v>87.12469248054286</v>
       </c>
       <c r="K14" t="n">
-        <v>212.3147925332976</v>
+        <v>212.3147925332973</v>
       </c>
       <c r="L14" t="n">
-        <v>391.6103269222914</v>
+        <v>391.6103269222913</v>
       </c>
       <c r="M14" t="n">
-        <v>611.6962898196853</v>
+        <v>611.696289819685</v>
       </c>
       <c r="N14" t="n">
-        <v>838.3424491357905</v>
+        <v>838.3424491357903</v>
       </c>
       <c r="O14" t="n">
         <v>1043.69007063873</v>
       </c>
       <c r="P14" t="n">
-        <v>1196.523864148038</v>
+        <v>1196.523864148037</v>
       </c>
       <c r="Q14" t="n">
-        <v>1279.983392866188</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="R14" t="n">
         <v>1279.983392866188</v>
       </c>
       <c r="S14" t="n">
-        <v>1279.983392866188</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="T14" t="n">
-        <v>1279.983392866188</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="U14" t="n">
-        <v>1279.983392866188</v>
+        <v>906.6570419694119</v>
       </c>
       <c r="V14" t="n">
-        <v>974.221142120653</v>
+        <v>906.6570419694119</v>
       </c>
       <c r="W14" t="n">
-        <v>974.221142120653</v>
+        <v>583.4289124577483</v>
       </c>
       <c r="X14" t="n">
-        <v>974.221142120653</v>
+        <v>583.4289124577483</v>
       </c>
       <c r="Y14" t="n">
-        <v>974.221142120653</v>
+        <v>583.4289124577483</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>654.421759235295</v>
+        <v>176.2538982972316</v>
       </c>
       <c r="C15" t="n">
-        <v>503.7675287953872</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="D15" t="n">
-        <v>373.6785614168675</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="E15" t="n">
-        <v>237.2320705277552</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="F15" t="n">
-        <v>112.8002644108871</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="G15" t="n">
-        <v>112.8002644108871</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="H15" t="n">
-        <v>35.56193382349565</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="I15" t="n">
         <v>25.59966785732375</v>
@@ -5360,49 +5360,49 @@
         <v>50.01195051225359</v>
       </c>
       <c r="K15" t="n">
-        <v>142.5370659719023</v>
+        <v>160.1348282407098</v>
       </c>
       <c r="L15" t="n">
-        <v>413.7464051818834</v>
+        <v>476.9307179750912</v>
       </c>
       <c r="M15" t="n">
-        <v>606.6471906615227</v>
+        <v>669.8315034547305</v>
       </c>
       <c r="N15" t="n">
-        <v>923.4430803959042</v>
+        <v>877.2034179270502</v>
       </c>
       <c r="O15" t="n">
-        <v>1098.705001866978</v>
+        <v>1052.465339398124</v>
       </c>
       <c r="P15" t="n">
-        <v>1226.80165215332</v>
+        <v>1180.561989684466</v>
       </c>
       <c r="Q15" t="n">
-        <v>1279.983392866188</v>
+        <v>1233.743730397334</v>
       </c>
       <c r="R15" t="n">
         <v>1279.983392866188</v>
       </c>
       <c r="S15" t="n">
-        <v>1166.32212013202</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="T15" t="n">
-        <v>1086.94956981357</v>
+        <v>1129.199337890949</v>
       </c>
       <c r="U15" t="n">
-        <v>876.9617608642279</v>
+        <v>919.211528941607</v>
       </c>
       <c r="V15" t="n">
-        <v>654.421759235295</v>
+        <v>696.671527312674</v>
       </c>
       <c r="W15" t="n">
-        <v>654.421759235295</v>
+        <v>696.671527312674</v>
       </c>
       <c r="X15" t="n">
-        <v>654.421759235295</v>
+        <v>507.3644496626857</v>
       </c>
       <c r="Y15" t="n">
-        <v>654.421759235295</v>
+        <v>328.0502327381929</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>262.9200579177907</v>
+        <v>451.497065495288</v>
       </c>
       <c r="C16" t="n">
-        <v>262.9200579177907</v>
+        <v>281.2919475612772</v>
       </c>
       <c r="D16" t="n">
-        <v>262.9200579177907</v>
+        <v>281.2919475612772</v>
       </c>
       <c r="E16" t="n">
-        <v>107.3612457769932</v>
+        <v>281.2919475612772</v>
       </c>
       <c r="F16" t="n">
-        <v>107.3612457769932</v>
+        <v>281.2919475612772</v>
       </c>
       <c r="G16" t="n">
-        <v>107.3612457769932</v>
+        <v>276.767605398639</v>
       </c>
       <c r="H16" t="n">
-        <v>25.59966785732375</v>
+        <v>129.8243152106207</v>
       </c>
       <c r="I16" t="n">
         <v>25.59966785732375</v>
       </c>
       <c r="J16" t="n">
-        <v>25.59966785732375</v>
+        <v>62.34717989579779</v>
       </c>
       <c r="K16" t="n">
-        <v>51.8944921133523</v>
+        <v>253.4970768945077</v>
       </c>
       <c r="L16" t="n">
-        <v>104.9815826763687</v>
+        <v>557.5100965183008</v>
       </c>
       <c r="M16" t="n">
-        <v>421.7774724107501</v>
+        <v>615.6008741168768</v>
       </c>
       <c r="N16" t="n">
-        <v>668.4050399146121</v>
+        <v>677.4177747022968</v>
       </c>
       <c r="O16" t="n">
         <v>964.100994699557</v>
@@ -5463,25 +5463,25 @@
         <v>1279.983392866188</v>
       </c>
       <c r="S16" t="n">
-        <v>1279.983392866188</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="T16" t="n">
-        <v>1048.366153508583</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="U16" t="n">
-        <v>762.9797253139834</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="V16" t="n">
-        <v>497.0003801348076</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="W16" t="n">
-        <v>497.0003801348076</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="X16" t="n">
-        <v>262.9200579177907</v>
+        <v>859.8171453699459</v>
       </c>
       <c r="Y16" t="n">
-        <v>262.9200579177907</v>
+        <v>636.7050841865893</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>912.1322052210805</v>
+        <v>755.8850019140993</v>
       </c>
       <c r="C17" t="n">
-        <v>912.1322052210805</v>
+        <v>755.8850019140993</v>
       </c>
       <c r="D17" t="n">
-        <v>912.1322052210805</v>
+        <v>755.8850019140993</v>
       </c>
       <c r="E17" t="n">
-        <v>509.548680337625</v>
+        <v>755.8850019140993</v>
       </c>
       <c r="F17" t="n">
-        <v>92.65424186760268</v>
+        <v>338.9905634440772</v>
       </c>
       <c r="G17" t="n">
-        <v>92.65424186760268</v>
+        <v>338.9905634440772</v>
       </c>
       <c r="H17" t="n">
-        <v>92.65424186760268</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I17" t="n">
-        <v>36.82534820407513</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J17" t="n">
-        <v>98.35037282729425</v>
+        <v>359.503185299045</v>
       </c>
       <c r="K17" t="n">
-        <v>223.5404728800487</v>
+        <v>484.6932853517994</v>
       </c>
       <c r="L17" t="n">
-        <v>402.8360072690426</v>
+        <v>663.9888197407934</v>
       </c>
       <c r="M17" t="n">
-        <v>622.9219701664365</v>
+        <v>884.0747826381871</v>
       </c>
       <c r="N17" t="n">
-        <v>849.5681294825417</v>
+        <v>1110.720941954292</v>
       </c>
       <c r="O17" t="n">
-        <v>1305.281813507971</v>
+        <v>1510.449881285069</v>
       </c>
       <c r="P17" t="n">
-        <v>1757.807881485607</v>
+        <v>1663.283674794376</v>
       </c>
       <c r="Q17" t="n">
-        <v>1841.267410203757</v>
+        <v>1746.743203512526</v>
       </c>
       <c r="R17" t="n">
-        <v>1841.267410203757</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S17" t="n">
-        <v>1841.267410203757</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T17" t="n">
-        <v>1709.117660011877</v>
+        <v>1627.135324649256</v>
       </c>
       <c r="U17" t="n">
-        <v>1709.117660011877</v>
+        <v>1627.135324649256</v>
       </c>
       <c r="V17" t="n">
-        <v>1709.117660011877</v>
+        <v>1627.135324649256</v>
       </c>
       <c r="W17" t="n">
-        <v>1709.117660011877</v>
+        <v>1256.136289617544</v>
       </c>
       <c r="X17" t="n">
-        <v>1709.117660011877</v>
+        <v>1152.375710993498</v>
       </c>
       <c r="Y17" t="n">
-        <v>1312.626950932477</v>
+        <v>755.8850019140993</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>582.8920383512731</v>
+        <v>594.7151276958737</v>
       </c>
       <c r="C18" t="n">
-        <v>432.2378079113653</v>
+        <v>444.0608972559659</v>
       </c>
       <c r="D18" t="n">
-        <v>302.1488405328456</v>
+        <v>313.9719298774462</v>
       </c>
       <c r="E18" t="n">
-        <v>165.7023496437333</v>
+        <v>313.9719298774462</v>
       </c>
       <c r="F18" t="n">
-        <v>165.7023496437333</v>
+        <v>242.9406802311248</v>
       </c>
       <c r="G18" t="n">
-        <v>46.78761417024703</v>
+        <v>124.0259447576385</v>
       </c>
       <c r="H18" t="n">
-        <v>46.78761417024703</v>
+        <v>46.78761417024707</v>
       </c>
       <c r="I18" t="n">
-        <v>36.82534820407513</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J18" t="n">
-        <v>61.23763085900498</v>
+        <v>255.9726258387324</v>
       </c>
       <c r="K18" t="n">
-        <v>153.7627463186537</v>
+        <v>559.2502843386218</v>
       </c>
       <c r="L18" t="n">
-        <v>308.2838341134485</v>
+        <v>713.7713721334167</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1846195930878</v>
+        <v>906.6721576130559</v>
       </c>
       <c r="N18" t="n">
-        <v>956.8983036185176</v>
+        <v>1114.044072085376</v>
       </c>
       <c r="O18" t="n">
-        <v>1335.545656025301</v>
+        <v>1289.305993556449</v>
       </c>
       <c r="P18" t="n">
-        <v>1463.642306311643</v>
+        <v>1417.402643842791</v>
       </c>
       <c r="Q18" t="n">
-        <v>1841.267410203757</v>
+        <v>1795.027747734904</v>
       </c>
       <c r="R18" t="n">
-        <v>1841.267410203757</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S18" t="n">
-        <v>1727.606137469589</v>
+        <v>1727.606137469591</v>
       </c>
       <c r="T18" t="n">
-        <v>1555.237811527369</v>
+        <v>1555.237811527371</v>
       </c>
       <c r="U18" t="n">
-        <v>1345.250002578028</v>
+        <v>1345.250002578029</v>
       </c>
       <c r="V18" t="n">
-        <v>1181.630578792467</v>
+        <v>1345.250002578029</v>
       </c>
       <c r="W18" t="n">
-        <v>951.5133329257542</v>
+        <v>1115.132756711316</v>
       </c>
       <c r="X18" t="n">
-        <v>762.2062552757659</v>
+        <v>925.8256790613277</v>
       </c>
       <c r="Y18" t="n">
-        <v>582.8920383512731</v>
+        <v>746.511462136835</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>353.9737563261043</v>
+        <v>317.7616120031822</v>
       </c>
       <c r="C19" t="n">
-        <v>183.7686383920935</v>
+        <v>317.7616120031822</v>
       </c>
       <c r="D19" t="n">
-        <v>183.7686383920935</v>
+        <v>317.7616120031822</v>
       </c>
       <c r="E19" t="n">
-        <v>183.7686383920935</v>
+        <v>317.7616120031822</v>
       </c>
       <c r="F19" t="n">
-        <v>183.7686383920935</v>
+        <v>160.4356772161552</v>
       </c>
       <c r="G19" t="n">
-        <v>183.7686383920935</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="H19" t="n">
-        <v>36.82534820407513</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I19" t="n">
-        <v>36.82534820407513</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J19" t="n">
-        <v>73.57286024254782</v>
+        <v>73.57286024254927</v>
       </c>
       <c r="K19" t="n">
-        <v>264.7227572412577</v>
+        <v>264.7227572412592</v>
       </c>
       <c r="L19" t="n">
-        <v>568.7357768650508</v>
+        <v>568.7357768650521</v>
       </c>
       <c r="M19" t="n">
-        <v>902.5168747721746</v>
+        <v>902.5168747721759</v>
       </c>
       <c r="N19" t="n">
-        <v>1229.689057252181</v>
+        <v>1229.689057252183</v>
       </c>
       <c r="O19" t="n">
-        <v>1525.385012037126</v>
+        <v>1525.385012037128</v>
       </c>
       <c r="P19" t="n">
-        <v>1759.058113865674</v>
+        <v>1759.058113865676</v>
       </c>
       <c r="Q19" t="n">
-        <v>1841.267410203757</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R19" t="n">
-        <v>1760.531451681438</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S19" t="n">
-        <v>1574.445526402214</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T19" t="n">
-        <v>1342.828287044608</v>
+        <v>1609.650170846153</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.441858850009</v>
+        <v>1324.263742651554</v>
       </c>
       <c r="V19" t="n">
-        <v>791.4625136708336</v>
+        <v>1058.284397472378</v>
       </c>
       <c r="W19" t="n">
-        <v>762.2938362007621</v>
+        <v>774.9539954035558</v>
       </c>
       <c r="X19" t="n">
-        <v>762.2938362007621</v>
+        <v>540.8736731865389</v>
       </c>
       <c r="Y19" t="n">
-        <v>539.1817750174055</v>
+        <v>317.7616120031822</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>832.5843745846003</v>
+        <v>1327.031867605461</v>
       </c>
       <c r="C20" t="n">
-        <v>439.4088730875307</v>
+        <v>1327.031867605461</v>
       </c>
       <c r="D20" t="n">
-        <v>439.4088730875307</v>
+        <v>1327.031867605461</v>
       </c>
       <c r="E20" t="n">
-        <v>36.82534820407517</v>
+        <v>924.4483427220057</v>
       </c>
       <c r="F20" t="n">
-        <v>36.82534820407517</v>
+        <v>507.5539042519835</v>
       </c>
       <c r="G20" t="n">
-        <v>36.82534820407517</v>
+        <v>338.9905634440772</v>
       </c>
       <c r="H20" t="n">
         <v>36.82534820407517</v>
@@ -5752,25 +5752,25 @@
         <v>36.82534820407517</v>
       </c>
       <c r="J20" t="n">
-        <v>98.35037282729428</v>
+        <v>359.503185299045</v>
       </c>
       <c r="K20" t="n">
-        <v>223.5404728800487</v>
+        <v>484.6932853517994</v>
       </c>
       <c r="L20" t="n">
-        <v>402.8360072690427</v>
+        <v>663.9888197407934</v>
       </c>
       <c r="M20" t="n">
-        <v>622.9219701664365</v>
+        <v>884.0747826381871</v>
       </c>
       <c r="N20" t="n">
-        <v>849.5681294825417</v>
+        <v>1110.720941954292</v>
       </c>
       <c r="O20" t="n">
-        <v>1207.569990768946</v>
+        <v>1316.068563457232</v>
       </c>
       <c r="P20" t="n">
-        <v>1663.283674794376</v>
+        <v>1468.902356966539</v>
       </c>
       <c r="Q20" t="n">
         <v>1746.743203512526</v>
@@ -5785,19 +5785,19 @@
         <v>1723.52257668486</v>
       </c>
       <c r="U20" t="n">
-        <v>1467.941059306983</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="V20" t="n">
-        <v>1229.075083663999</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="W20" t="n">
-        <v>1229.075083663999</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="X20" t="n">
-        <v>1229.075083663999</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="Y20" t="n">
-        <v>832.5843745846003</v>
+        <v>1327.031867605461</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.2533674990063</v>
+        <v>774.5999090893607</v>
       </c>
       <c r="C21" t="n">
-        <v>380.5991370590986</v>
+        <v>623.9456786494529</v>
       </c>
       <c r="D21" t="n">
-        <v>250.5101696805789</v>
+        <v>493.8567112709333</v>
       </c>
       <c r="E21" t="n">
-        <v>114.0636787914666</v>
+        <v>357.410220381821</v>
       </c>
       <c r="F21" t="n">
-        <v>114.0636787914666</v>
+        <v>232.9784142649528</v>
       </c>
       <c r="G21" t="n">
         <v>114.0636787914666</v>
@@ -5831,22 +5831,22 @@
         <v>36.82534820407517</v>
       </c>
       <c r="J21" t="n">
-        <v>61.23763085900501</v>
+        <v>255.9726258387324</v>
       </c>
       <c r="K21" t="n">
-        <v>153.7627463186537</v>
+        <v>605.4899468074758</v>
       </c>
       <c r="L21" t="n">
-        <v>308.2838341134485</v>
+        <v>760.0110346022707</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1846195930878</v>
+        <v>952.9118200819099</v>
       </c>
       <c r="N21" t="n">
-        <v>832.666700815141</v>
+        <v>1160.28373455423</v>
       </c>
       <c r="O21" t="n">
-        <v>1007.928622286215</v>
+        <v>1335.545656025303</v>
       </c>
       <c r="P21" t="n">
         <v>1463.642306311645</v>
@@ -5870,13 +5870,13 @@
         <v>1122.710000949096</v>
       </c>
       <c r="W21" t="n">
-        <v>1051.670996514449</v>
+        <v>1122.710000949096</v>
       </c>
       <c r="X21" t="n">
-        <v>862.3639188644604</v>
+        <v>933.4029232991079</v>
       </c>
       <c r="Y21" t="n">
-        <v>683.0497019399677</v>
+        <v>926.3962435303221</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>207.030466138086</v>
+        <v>664.021741512995</v>
       </c>
       <c r="C22" t="n">
-        <v>36.82534820407517</v>
+        <v>664.021741512995</v>
       </c>
       <c r="D22" t="n">
-        <v>36.82534820407517</v>
+        <v>508.3886284155097</v>
       </c>
       <c r="E22" t="n">
-        <v>36.82534820407517</v>
+        <v>508.3886284155097</v>
       </c>
       <c r="F22" t="n">
-        <v>36.82534820407517</v>
+        <v>351.0626936284827</v>
       </c>
       <c r="G22" t="n">
-        <v>36.82534820407517</v>
+        <v>183.7686383920935</v>
       </c>
       <c r="H22" t="n">
         <v>36.82534820407517</v>
@@ -5910,16 +5910,16 @@
         <v>36.82534820407517</v>
       </c>
       <c r="J22" t="n">
-        <v>73.57286024254918</v>
+        <v>73.57286024254921</v>
       </c>
       <c r="K22" t="n">
         <v>264.7227572412591</v>
       </c>
       <c r="L22" t="n">
-        <v>568.7357768650522</v>
+        <v>568.7357768650521</v>
       </c>
       <c r="M22" t="n">
-        <v>902.516874772176</v>
+        <v>902.5168747721759</v>
       </c>
       <c r="N22" t="n">
         <v>1229.689057252183</v>
@@ -5940,22 +5940,22 @@
         <v>1574.445526402215</v>
       </c>
       <c r="T22" t="n">
-        <v>1342.82828704461</v>
+        <v>1574.445526402215</v>
       </c>
       <c r="U22" t="n">
-        <v>1057.441858850011</v>
+        <v>1289.059098207616</v>
       </c>
       <c r="V22" t="n">
-        <v>791.4625136708352</v>
+        <v>1289.059098207616</v>
       </c>
       <c r="W22" t="n">
-        <v>508.1321116020128</v>
+        <v>1072.341821387653</v>
       </c>
       <c r="X22" t="n">
-        <v>274.0517893849959</v>
+        <v>1072.341821387653</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.030466138086</v>
+        <v>849.2297602042963</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.9901505517897</v>
+        <v>1282.270459255717</v>
       </c>
       <c r="C23" t="n">
-        <v>749.9901505517897</v>
+        <v>889.0949577586474</v>
       </c>
       <c r="D23" t="n">
-        <v>749.9901505517897</v>
+        <v>503.6538289753152</v>
       </c>
       <c r="E23" t="n">
-        <v>347.4066256683342</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="F23" t="n">
-        <v>347.4066256683342</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="G23" t="n">
-        <v>347.4066256683342</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="H23" t="n">
-        <v>45.24141042833216</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="I23" t="n">
-        <v>45.24141042833216</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="J23" t="n">
-        <v>132.9865998005722</v>
+        <v>367.919247523302</v>
       </c>
       <c r="K23" t="n">
-        <v>692.8490538511826</v>
+        <v>493.1093475760564</v>
       </c>
       <c r="L23" t="n">
-        <v>872.1445882401765</v>
+        <v>672.4048819650503</v>
       </c>
       <c r="M23" t="n">
-        <v>1092.23055113757</v>
+        <v>892.4908448624442</v>
       </c>
       <c r="N23" t="n">
-        <v>1318.876710453676</v>
+        <v>1119.137004178549</v>
       </c>
       <c r="O23" t="n">
-        <v>1524.224331956615</v>
+        <v>1324.484625681489</v>
       </c>
       <c r="P23" t="n">
-        <v>2084.086786007225</v>
+        <v>1756.187514432068</v>
       </c>
       <c r="Q23" t="n">
         <v>2167.546314725375</v>
       </c>
       <c r="R23" t="n">
-        <v>2262.070521416608</v>
+        <v>2262.070521416607</v>
       </c>
       <c r="S23" t="n">
-        <v>2144.325687897709</v>
+        <v>2262.070521416607</v>
       </c>
       <c r="T23" t="n">
-        <v>2144.325687897709</v>
+        <v>2047.938435862105</v>
       </c>
       <c r="U23" t="n">
-        <v>1888.744170519832</v>
+        <v>2047.938435862105</v>
       </c>
       <c r="V23" t="n">
-        <v>1546.63736122335</v>
+        <v>2047.938435862105</v>
       </c>
       <c r="W23" t="n">
-        <v>1175.638326191638</v>
+        <v>2047.938435862105</v>
       </c>
       <c r="X23" t="n">
-        <v>1175.638326191638</v>
+        <v>1658.485830795162</v>
       </c>
       <c r="Y23" t="n">
-        <v>779.1476171122388</v>
+        <v>1282.270459255717</v>
       </c>
     </row>
     <row r="24">
@@ -6050,49 +6050,49 @@
         <v>642.3240068398818</v>
       </c>
       <c r="D24" t="n">
-        <v>512.235039461362</v>
+        <v>512.2350394613622</v>
       </c>
       <c r="E24" t="n">
-        <v>375.7885485722497</v>
+        <v>375.78854857225</v>
       </c>
       <c r="F24" t="n">
-        <v>251.3567424553816</v>
+        <v>251.3567424553817</v>
       </c>
       <c r="G24" t="n">
-        <v>132.4420069818952</v>
+        <v>132.4420069818955</v>
       </c>
       <c r="H24" t="n">
-        <v>55.20367639450412</v>
+        <v>55.20367639450404</v>
       </c>
       <c r="I24" t="n">
-        <v>45.24141042833216</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="J24" t="n">
-        <v>69.653693083262</v>
+        <v>264.3886880629894</v>
       </c>
       <c r="K24" t="n">
-        <v>162.1788085429107</v>
+        <v>765.3539155648646</v>
       </c>
       <c r="L24" t="n">
-        <v>316.6998963377055</v>
+        <v>919.8750033596594</v>
       </c>
       <c r="M24" t="n">
-        <v>876.562350388316</v>
+        <v>1112.775788839299</v>
       </c>
       <c r="N24" t="n">
-        <v>1083.934264860636</v>
+        <v>1320.147703311618</v>
       </c>
       <c r="O24" t="n">
-        <v>1643.796718911246</v>
+        <v>1495.409624782692</v>
       </c>
       <c r="P24" t="n">
-        <v>1838.20575505564</v>
+        <v>1884.445417524494</v>
       </c>
       <c r="Q24" t="n">
-        <v>2215.830858947754</v>
+        <v>2262.070521416607</v>
       </c>
       <c r="R24" t="n">
-        <v>2262.070521416608</v>
+        <v>2262.070521416607</v>
       </c>
       <c r="S24" t="n">
         <v>2148.40924868244</v>
@@ -6101,10 +6101,10 @@
         <v>1976.04092274022</v>
       </c>
       <c r="U24" t="n">
-        <v>1766.053113790879</v>
+        <v>1766.053113790878</v>
       </c>
       <c r="V24" t="n">
-        <v>1543.513112161946</v>
+        <v>1543.513112161945</v>
       </c>
       <c r="W24" t="n">
         <v>1313.395866295232</v>
@@ -6113,7 +6113,7 @@
         <v>1124.088788645244</v>
       </c>
       <c r="Y24" t="n">
-        <v>944.7745717207512</v>
+        <v>944.7745717207511</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>325.3351356050717</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="C25" t="n">
-        <v>155.130017671061</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="D25" t="n">
-        <v>155.130017671061</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="E25" t="n">
-        <v>45.24141042833216</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="F25" t="n">
-        <v>45.24141042833216</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="G25" t="n">
-        <v>45.24141042833216</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="H25" t="n">
-        <v>45.24141042833216</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="I25" t="n">
-        <v>45.24141042833216</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="J25" t="n">
-        <v>81.9889224668062</v>
+        <v>81.98892246680619</v>
       </c>
       <c r="K25" t="n">
         <v>273.1388194655161</v>
@@ -6171,28 +6171,28 @@
         <v>1849.683472428015</v>
       </c>
       <c r="R25" t="n">
-        <v>1768.947513905697</v>
+        <v>1849.683472428015</v>
       </c>
       <c r="S25" t="n">
-        <v>1582.861588626472</v>
+        <v>1663.59754714879</v>
       </c>
       <c r="T25" t="n">
-        <v>1351.244349268867</v>
+        <v>1431.980307791185</v>
       </c>
       <c r="U25" t="n">
-        <v>1065.857921074268</v>
+        <v>1146.593879596586</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.857921074268</v>
+        <v>880.6145344174105</v>
       </c>
       <c r="W25" t="n">
-        <v>782.5275190054454</v>
+        <v>597.2841323485882</v>
       </c>
       <c r="X25" t="n">
-        <v>548.4471967884284</v>
+        <v>363.2038101315712</v>
       </c>
       <c r="Y25" t="n">
-        <v>325.3351356050717</v>
+        <v>140.0917489482146</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.867174373116</v>
+        <v>1743.830942186312</v>
       </c>
       <c r="C26" t="n">
-        <v>631.6916728760468</v>
+        <v>1350.655440689243</v>
       </c>
       <c r="D26" t="n">
-        <v>631.6916728760468</v>
+        <v>965.2143119059103</v>
       </c>
       <c r="E26" t="n">
-        <v>631.6916728760468</v>
+        <v>562.6307870224548</v>
       </c>
       <c r="F26" t="n">
-        <v>631.6916728760468</v>
+        <v>145.7363485524326</v>
       </c>
       <c r="G26" t="n">
-        <v>220.6690697081005</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="H26" t="n">
         <v>45.24141042833214</v>
@@ -6229,22 +6229,22 @@
         <v>106.7664350515513</v>
       </c>
       <c r="K26" t="n">
-        <v>231.9565351043057</v>
+        <v>666.6288891021616</v>
       </c>
       <c r="L26" t="n">
-        <v>411.2520694932997</v>
+        <v>845.9244234911555</v>
       </c>
       <c r="M26" t="n">
-        <v>853.5384630942972</v>
+        <v>1066.010386388549</v>
       </c>
       <c r="N26" t="n">
-        <v>1413.400917144907</v>
+        <v>1292.656545704654</v>
       </c>
       <c r="O26" t="n">
-        <v>1618.748538647847</v>
+        <v>1498.004167207594</v>
       </c>
       <c r="P26" t="n">
-        <v>2178.610992698457</v>
+        <v>2057.866621258204</v>
       </c>
       <c r="Q26" t="n">
         <v>2262.070521416607</v>
@@ -6253,25 +6253,25 @@
         <v>2262.070521416607</v>
       </c>
       <c r="S26" t="n">
-        <v>2262.070521416607</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="T26" t="n">
-        <v>2047.938435862105</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="U26" t="n">
-        <v>1792.356918484228</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="V26" t="n">
-        <v>1792.356918484228</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="W26" t="n">
-        <v>1421.357883452515</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="X26" t="n">
-        <v>1421.357883452515</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="Y26" t="n">
-        <v>1024.867174373116</v>
+        <v>2144.325687897709</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>792.9782372797897</v>
+        <v>792.9782372797895</v>
       </c>
       <c r="C27" t="n">
-        <v>642.3240068398819</v>
+        <v>642.3240068398816</v>
       </c>
       <c r="D27" t="n">
-        <v>512.2350394613622</v>
+        <v>512.235039461362</v>
       </c>
       <c r="E27" t="n">
-        <v>375.7885485722499</v>
+        <v>375.7885485722497</v>
       </c>
       <c r="F27" t="n">
-        <v>251.3567424553817</v>
+        <v>251.3567424553814</v>
       </c>
       <c r="G27" t="n">
-        <v>132.4420069818954</v>
+        <v>132.4420069818955</v>
       </c>
       <c r="H27" t="n">
         <v>55.20367639450404</v>
@@ -6308,25 +6308,25 @@
         <v>69.65369308326198</v>
       </c>
       <c r="K27" t="n">
-        <v>162.1788085429106</v>
+        <v>570.6189205851371</v>
       </c>
       <c r="L27" t="n">
-        <v>316.6998963377055</v>
+        <v>725.1400083799319</v>
       </c>
       <c r="M27" t="n">
-        <v>543.2189254833456</v>
+        <v>918.0407938595713</v>
       </c>
       <c r="N27" t="n">
-        <v>1103.081379533956</v>
+        <v>1125.412708331891</v>
       </c>
       <c r="O27" t="n">
-        <v>1278.34330100503</v>
+        <v>1300.674629802965</v>
       </c>
       <c r="P27" t="n">
-        <v>1838.20575505564</v>
+        <v>1860.537083853575</v>
       </c>
       <c r="Q27" t="n">
-        <v>2215.830858947753</v>
+        <v>2238.162187745688</v>
       </c>
       <c r="R27" t="n">
         <v>2262.070521416607</v>
@@ -6350,7 +6350,7 @@
         <v>1124.088788645244</v>
       </c>
       <c r="Y27" t="n">
-        <v>944.7745717207511</v>
+        <v>944.7745717207508</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.24141042833214</v>
+        <v>932.2212632313465</v>
       </c>
       <c r="C28" t="n">
-        <v>45.24141042833214</v>
+        <v>932.2212632313465</v>
       </c>
       <c r="D28" t="n">
-        <v>45.24141042833214</v>
+        <v>776.5881501338613</v>
       </c>
       <c r="E28" t="n">
-        <v>45.24141042833214</v>
+        <v>621.0293379930638</v>
       </c>
       <c r="F28" t="n">
-        <v>45.24141042833214</v>
+        <v>463.7034032060367</v>
       </c>
       <c r="G28" t="n">
-        <v>45.24141042833214</v>
+        <v>296.4093479696475</v>
       </c>
       <c r="H28" t="n">
-        <v>45.24141042833214</v>
+        <v>149.4660577816292</v>
       </c>
       <c r="I28" t="n">
         <v>45.24141042833214</v>
@@ -6408,28 +6408,28 @@
         <v>1849.683472428015</v>
       </c>
       <c r="R28" t="n">
-        <v>1768.947513905697</v>
+        <v>1849.683472428015</v>
       </c>
       <c r="S28" t="n">
-        <v>1582.861588626472</v>
+        <v>1663.59754714879</v>
       </c>
       <c r="T28" t="n">
-        <v>1351.244349268867</v>
+        <v>1438.663726483526</v>
       </c>
       <c r="U28" t="n">
-        <v>1065.857921074268</v>
+        <v>1438.663726483526</v>
       </c>
       <c r="V28" t="n">
-        <v>970.9722145888293</v>
+        <v>1438.663726483526</v>
       </c>
       <c r="W28" t="n">
-        <v>687.641812520007</v>
+        <v>1155.333324414703</v>
       </c>
       <c r="X28" t="n">
-        <v>453.56149030299</v>
+        <v>1155.333324414703</v>
       </c>
       <c r="Y28" t="n">
-        <v>230.4494291196334</v>
+        <v>932.2212632313465</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>827.6351529480695</v>
+        <v>864.7193737818098</v>
       </c>
       <c r="C29" t="n">
-        <v>827.6351529480695</v>
+        <v>864.7193737818098</v>
       </c>
       <c r="D29" t="n">
-        <v>442.1940241647372</v>
+        <v>864.7193737818098</v>
       </c>
       <c r="E29" t="n">
-        <v>45.24141042833214</v>
+        <v>462.1358488983544</v>
       </c>
       <c r="F29" t="n">
         <v>45.24141042833214</v>
@@ -6463,28 +6463,28 @@
         <v>45.24141042833214</v>
       </c>
       <c r="J29" t="n">
-        <v>106.7664350515513</v>
+        <v>367.919247523302</v>
       </c>
       <c r="K29" t="n">
-        <v>231.9565351043057</v>
+        <v>866.5026495085606</v>
       </c>
       <c r="L29" t="n">
-        <v>791.8189891549159</v>
+        <v>1045.798183897555</v>
       </c>
       <c r="M29" t="n">
-        <v>1144.744379131202</v>
+        <v>1265.884146794948</v>
       </c>
       <c r="N29" t="n">
-        <v>1371.390538447307</v>
+        <v>1492.530306111054</v>
       </c>
       <c r="O29" t="n">
-        <v>1931.252992497917</v>
+        <v>1697.877927613993</v>
       </c>
       <c r="P29" t="n">
-        <v>2084.086786007225</v>
+        <v>1850.711721123301</v>
       </c>
       <c r="Q29" t="n">
-        <v>2167.546314725375</v>
+        <v>2262.070521416607</v>
       </c>
       <c r="R29" t="n">
         <v>2262.070521416607</v>
@@ -6496,19 +6496,19 @@
         <v>1930.193602343207</v>
       </c>
       <c r="U29" t="n">
-        <v>1930.193602343207</v>
+        <v>1674.612084965329</v>
       </c>
       <c r="V29" t="n">
-        <v>1588.086793046725</v>
+        <v>1332.505275668848</v>
       </c>
       <c r="W29" t="n">
-        <v>1217.087758015013</v>
+        <v>961.5062406371353</v>
       </c>
       <c r="X29" t="n">
-        <v>827.6351529480695</v>
+        <v>864.7193737818098</v>
       </c>
       <c r="Y29" t="n">
-        <v>827.6351529480695</v>
+        <v>864.7193737818098</v>
       </c>
     </row>
     <row r="30">
@@ -6521,13 +6521,13 @@
         <v>792.9782372797899</v>
       </c>
       <c r="C30" t="n">
-        <v>642.324006839882</v>
+        <v>642.3240068398819</v>
       </c>
       <c r="D30" t="n">
         <v>512.2350394613622</v>
       </c>
       <c r="E30" t="n">
-        <v>375.78854857225</v>
+        <v>375.7885485722499</v>
       </c>
       <c r="F30" t="n">
         <v>251.3567424553817</v>
@@ -6542,28 +6542,28 @@
         <v>45.24141042833214</v>
       </c>
       <c r="J30" t="n">
-        <v>69.65369308326198</v>
+        <v>264.3886880629894</v>
       </c>
       <c r="K30" t="n">
-        <v>162.1788085429106</v>
+        <v>765.3539155648646</v>
       </c>
       <c r="L30" t="n">
-        <v>722.041262593521</v>
+        <v>919.8750033596594</v>
       </c>
       <c r="M30" t="n">
-        <v>914.9420480731603</v>
+        <v>1112.775788839299</v>
       </c>
       <c r="N30" t="n">
-        <v>1474.804502123771</v>
+        <v>1581.086845767078</v>
       </c>
       <c r="O30" t="n">
-        <v>1710.109104769298</v>
+        <v>1756.348767238152</v>
       </c>
       <c r="P30" t="n">
-        <v>1838.20575505564</v>
+        <v>1884.445417524494</v>
       </c>
       <c r="Q30" t="n">
-        <v>2215.830858947753</v>
+        <v>2262.070521416607</v>
       </c>
       <c r="R30" t="n">
         <v>2262.070521416607</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>215.4465283623429</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="C31" t="n">
         <v>45.24141042833214</v>
@@ -6666,7 +6666,7 @@
         <v>282.4678516092528</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.4465283623429</v>
+        <v>59.35579042589612</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>914.1604448666736</v>
+        <v>849.4395150933478</v>
       </c>
       <c r="C32" t="n">
-        <v>914.1604448666736</v>
+        <v>456.2640135962785</v>
       </c>
       <c r="D32" t="n">
-        <v>528.7193160833414</v>
+        <v>456.2640135962785</v>
       </c>
       <c r="E32" t="n">
-        <v>528.7193160833414</v>
+        <v>456.2640135962785</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2355193318616</v>
+        <v>456.2640135962785</v>
       </c>
       <c r="G32" t="n">
-        <v>403.2355193318616</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="H32" t="n">
-        <v>101.0703040918596</v>
+        <v>45.24141042833214</v>
       </c>
       <c r="I32" t="n">
         <v>45.24141042833214</v>
       </c>
       <c r="J32" t="n">
-        <v>106.7664350515513</v>
+        <v>367.919247523302</v>
       </c>
       <c r="K32" t="n">
-        <v>447.596769389198</v>
+        <v>493.1093475760564</v>
       </c>
       <c r="L32" t="n">
-        <v>626.8923037781919</v>
+        <v>672.4048819650503</v>
       </c>
       <c r="M32" t="n">
-        <v>1186.754757828802</v>
+        <v>892.490844862444</v>
       </c>
       <c r="N32" t="n">
-        <v>1413.400917144907</v>
+        <v>1119.137004178549</v>
       </c>
       <c r="O32" t="n">
-        <v>1618.748538647847</v>
+        <v>1324.484625681489</v>
       </c>
       <c r="P32" t="n">
-        <v>2178.610992698457</v>
+        <v>1884.347079732099</v>
       </c>
       <c r="Q32" t="n">
         <v>2262.070521416607</v>
@@ -6736,16 +6736,16 @@
         <v>1674.612084965329</v>
       </c>
       <c r="V32" t="n">
-        <v>1674.612084965329</v>
+        <v>1332.505275668848</v>
       </c>
       <c r="W32" t="n">
-        <v>1303.613049933617</v>
+        <v>1332.505275668848</v>
       </c>
       <c r="X32" t="n">
-        <v>914.1604448666736</v>
+        <v>1249.934260804745</v>
       </c>
       <c r="Y32" t="n">
-        <v>914.1604448666736</v>
+        <v>1249.934260804745</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>792.9782372797899</v>
+        <v>792.9782372797897</v>
       </c>
       <c r="C33" t="n">
-        <v>642.324006839882</v>
+        <v>642.3240068398819</v>
       </c>
       <c r="D33" t="n">
         <v>512.2350394613622</v>
       </c>
       <c r="E33" t="n">
-        <v>375.78854857225</v>
+        <v>375.7885485722499</v>
       </c>
       <c r="F33" t="n">
         <v>251.3567424553817</v>
@@ -6773,34 +6773,34 @@
         <v>132.4420069818954</v>
       </c>
       <c r="H33" t="n">
-        <v>55.20367639450404</v>
+        <v>55.20367639450405</v>
       </c>
       <c r="I33" t="n">
         <v>45.24141042833214</v>
       </c>
       <c r="J33" t="n">
-        <v>69.65369308326198</v>
+        <v>69.65369308326197</v>
       </c>
       <c r="K33" t="n">
-        <v>162.1788085429106</v>
+        <v>570.6189205851371</v>
       </c>
       <c r="L33" t="n">
-        <v>316.6998963377055</v>
+        <v>725.1400083799318</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1089324820997</v>
+        <v>918.0407938595711</v>
       </c>
       <c r="N33" t="n">
-        <v>718.4808469544193</v>
+        <v>1125.412708331891</v>
       </c>
       <c r="O33" t="n">
-        <v>1278.34330100503</v>
+        <v>1300.674629802964</v>
       </c>
       <c r="P33" t="n">
-        <v>1838.20575505564</v>
+        <v>1860.537083853575</v>
       </c>
       <c r="Q33" t="n">
-        <v>2215.830858947753</v>
+        <v>2238.162187745688</v>
       </c>
       <c r="R33" t="n">
         <v>2262.070521416607</v>
@@ -6824,7 +6824,7 @@
         <v>1124.088788645244</v>
       </c>
       <c r="Y33" t="n">
-        <v>944.7745717207513</v>
+        <v>944.7745717207511</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.24141042833214</v>
+        <v>659.5584993598304</v>
       </c>
       <c r="C34" t="n">
-        <v>45.24141042833214</v>
+        <v>489.3533814258196</v>
       </c>
       <c r="D34" t="n">
-        <v>45.24141042833214</v>
+        <v>333.7202683283344</v>
       </c>
       <c r="E34" t="n">
-        <v>45.24141042833214</v>
+        <v>178.1614561875369</v>
       </c>
       <c r="F34" t="n">
-        <v>45.24141042833214</v>
+        <v>178.1614561875369</v>
       </c>
       <c r="G34" t="n">
         <v>45.24141042833214</v>
@@ -6858,7 +6858,7 @@
         <v>45.24141042833214</v>
       </c>
       <c r="J34" t="n">
-        <v>81.98892246680619</v>
+        <v>81.98892246680617</v>
       </c>
       <c r="K34" t="n">
         <v>273.1388194655161</v>
@@ -6882,28 +6882,28 @@
         <v>1849.683472428015</v>
       </c>
       <c r="R34" t="n">
-        <v>1768.947513905697</v>
+        <v>1849.683472428015</v>
       </c>
       <c r="S34" t="n">
-        <v>1582.861588626472</v>
+        <v>1663.59754714879</v>
       </c>
       <c r="T34" t="n">
-        <v>1351.244349268867</v>
+        <v>1431.980307791185</v>
       </c>
       <c r="U34" t="n">
-        <v>1065.857921074268</v>
+        <v>1431.980307791185</v>
       </c>
       <c r="V34" t="n">
-        <v>970.9722145888293</v>
+        <v>1166.00096261201</v>
       </c>
       <c r="W34" t="n">
-        <v>687.641812520007</v>
+        <v>882.6705605431871</v>
       </c>
       <c r="X34" t="n">
-        <v>453.56149030299</v>
+        <v>882.6705605431871</v>
       </c>
       <c r="Y34" t="n">
-        <v>230.4494291196334</v>
+        <v>659.5584993598304</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>439.4088730875307</v>
+        <v>788.7004380350847</v>
       </c>
       <c r="C35" t="n">
-        <v>439.4088730875307</v>
+        <v>395.5249365380153</v>
       </c>
       <c r="D35" t="n">
-        <v>439.4088730875307</v>
+        <v>395.5249365380153</v>
       </c>
       <c r="E35" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="F35" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="G35" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="H35" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="I35" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="J35" t="n">
-        <v>359.503185299045</v>
+        <v>225.9852315517248</v>
       </c>
       <c r="K35" t="n">
-        <v>484.6932853517994</v>
+        <v>351.1753316044792</v>
       </c>
       <c r="L35" t="n">
-        <v>940.4069693772296</v>
+        <v>530.4708659934731</v>
       </c>
       <c r="M35" t="n">
-        <v>1172.980307157256</v>
+        <v>750.5568288908668</v>
       </c>
       <c r="N35" t="n">
-        <v>1399.626466473361</v>
+        <v>977.2029882069719</v>
       </c>
       <c r="O35" t="n">
-        <v>1604.974087976301</v>
+        <v>1182.550609709911</v>
       </c>
       <c r="P35" t="n">
-        <v>1757.807881485609</v>
+        <v>1335.384403219219</v>
       </c>
       <c r="Q35" t="n">
-        <v>1841.267410203758</v>
+        <v>1746.743203512525</v>
       </c>
       <c r="R35" t="n">
         <v>1841.267410203758</v>
       </c>
       <c r="S35" t="n">
-        <v>1723.52257668486</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T35" t="n">
-        <v>1723.52257668486</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="U35" t="n">
-        <v>1549.005426495124</v>
+        <v>1585.685892825881</v>
       </c>
       <c r="V35" t="n">
-        <v>1206.898617198642</v>
+        <v>1585.685892825881</v>
       </c>
       <c r="W35" t="n">
-        <v>835.8995821669296</v>
+        <v>1585.685892825881</v>
       </c>
       <c r="X35" t="n">
-        <v>835.8995821669296</v>
+        <v>1585.685892825881</v>
       </c>
       <c r="Y35" t="n">
-        <v>439.4088730875307</v>
+        <v>1189.195183746482</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>379.387171120237</v>
+        <v>411.1266660866585</v>
       </c>
       <c r="C36" t="n">
-        <v>379.387171120237</v>
+        <v>260.4724356467507</v>
       </c>
       <c r="D36" t="n">
-        <v>379.387171120237</v>
+        <v>260.4724356467507</v>
       </c>
       <c r="E36" t="n">
-        <v>242.9406802311248</v>
+        <v>124.0259447576385</v>
       </c>
       <c r="F36" t="n">
-        <v>242.9406802311248</v>
+        <v>124.0259447576385</v>
       </c>
       <c r="G36" t="n">
         <v>124.0259447576385</v>
@@ -7013,55 +7013,55 @@
         <v>46.78761417024707</v>
       </c>
       <c r="I36" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="J36" t="n">
-        <v>61.23763085900501</v>
+        <v>61.23763085900499</v>
       </c>
       <c r="K36" t="n">
-        <v>153.7627463186537</v>
+        <v>516.9513148844351</v>
       </c>
       <c r="L36" t="n">
-        <v>308.2838341134485</v>
+        <v>972.6649989098652</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1846195930878</v>
+        <v>1165.565784389504</v>
       </c>
       <c r="N36" t="n">
-        <v>708.5565340654075</v>
+        <v>1372.937698861824</v>
       </c>
       <c r="O36" t="n">
-        <v>1164.270218090838</v>
+        <v>1548.199620332898</v>
       </c>
       <c r="P36" t="n">
-        <v>1417.402643842791</v>
+        <v>1788.08566949089</v>
       </c>
       <c r="Q36" t="n">
-        <v>1795.027747734904</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R36" t="n">
         <v>1841.267410203758</v>
       </c>
       <c r="S36" t="n">
-        <v>1727.606137469591</v>
+        <v>1766.557677489309</v>
       </c>
       <c r="T36" t="n">
-        <v>1555.237811527371</v>
+        <v>1594.189351547089</v>
       </c>
       <c r="U36" t="n">
-        <v>1345.250002578029</v>
+        <v>1384.201542597747</v>
       </c>
       <c r="V36" t="n">
-        <v>1122.710000949096</v>
+        <v>1161.661540968814</v>
       </c>
       <c r="W36" t="n">
-        <v>892.5927550823831</v>
+        <v>931.5442951021009</v>
       </c>
       <c r="X36" t="n">
-        <v>703.2856774323948</v>
+        <v>742.2372174521126</v>
       </c>
       <c r="Y36" t="n">
-        <v>523.9714605079021</v>
+        <v>562.9230005276199</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>362.5892782788835</v>
+        <v>131.6756867239573</v>
       </c>
       <c r="C37" t="n">
-        <v>192.3841603448727</v>
+        <v>131.6756867239573</v>
       </c>
       <c r="D37" t="n">
-        <v>192.3841603448727</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="E37" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="F37" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="G37" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="H37" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="I37" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="J37" t="n">
         <v>73.57286024254927</v>
       </c>
       <c r="K37" t="n">
-        <v>264.7227572412592</v>
+        <v>264.7227572412594</v>
       </c>
       <c r="L37" t="n">
-        <v>568.7357768650522</v>
+        <v>568.7357768650525</v>
       </c>
       <c r="M37" t="n">
-        <v>902.5168747721759</v>
+        <v>902.5168747721762</v>
       </c>
       <c r="N37" t="n">
         <v>1229.689057252183</v>
@@ -7119,28 +7119,28 @@
         <v>1841.267410203758</v>
       </c>
       <c r="R37" t="n">
-        <v>1760.53145168144</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S37" t="n">
-        <v>1574.445526402215</v>
+        <v>1655.181484924533</v>
       </c>
       <c r="T37" t="n">
-        <v>1342.82828704461</v>
+        <v>1423.564245566928</v>
       </c>
       <c r="U37" t="n">
-        <v>1057.441858850011</v>
+        <v>1138.177817372329</v>
       </c>
       <c r="V37" t="n">
-        <v>791.4625136708352</v>
+        <v>872.1984721931532</v>
       </c>
       <c r="W37" t="n">
-        <v>508.1321116020128</v>
+        <v>588.8680701243309</v>
       </c>
       <c r="X37" t="n">
-        <v>508.1321116020128</v>
+        <v>354.7877479073139</v>
       </c>
       <c r="Y37" t="n">
-        <v>508.1321116020128</v>
+        <v>131.6756867239573</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>755.8850019140993</v>
+        <v>654.8293503460191</v>
       </c>
       <c r="C38" t="n">
-        <v>755.8850019140993</v>
+        <v>261.6538488489496</v>
       </c>
       <c r="D38" t="n">
-        <v>755.8850019140993</v>
+        <v>261.6538488489496</v>
       </c>
       <c r="E38" t="n">
-        <v>755.8850019140993</v>
+        <v>261.6538488489496</v>
       </c>
       <c r="F38" t="n">
-        <v>338.9905634440772</v>
+        <v>261.6538488489496</v>
       </c>
       <c r="G38" t="n">
-        <v>338.9905634440772</v>
+        <v>261.6538488489496</v>
       </c>
       <c r="H38" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="I38" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="J38" t="n">
-        <v>98.35037282729431</v>
+        <v>359.503185299045</v>
       </c>
       <c r="K38" t="n">
-        <v>223.5404728800488</v>
+        <v>484.6932853517994</v>
       </c>
       <c r="L38" t="n">
-        <v>402.8360072690429</v>
+        <v>663.9888197407934</v>
       </c>
       <c r="M38" t="n">
-        <v>622.9219701664367</v>
+        <v>884.0747826381871</v>
       </c>
       <c r="N38" t="n">
-        <v>849.568129482542</v>
+        <v>1110.720941954292</v>
       </c>
       <c r="O38" t="n">
-        <v>1277.074816401144</v>
+        <v>1316.068563457232</v>
       </c>
       <c r="P38" t="n">
-        <v>1429.908609910452</v>
+        <v>1468.902356966539</v>
       </c>
       <c r="Q38" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R38" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S38" t="n">
-        <v>1723.52257668486</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T38" t="n">
-        <v>1509.390491130358</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="U38" t="n">
-        <v>1509.390491130358</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="V38" t="n">
-        <v>1509.390491130358</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="W38" t="n">
-        <v>1509.390491130358</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="X38" t="n">
-        <v>1152.375710993498</v>
+        <v>1451.814805136815</v>
       </c>
       <c r="Y38" t="n">
-        <v>755.8850019140993</v>
+        <v>1055.324096057416</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>373.0296476096444</v>
+        <v>637.632733242069</v>
       </c>
       <c r="C39" t="n">
-        <v>373.0296476096444</v>
+        <v>486.9785028021612</v>
       </c>
       <c r="D39" t="n">
-        <v>242.9406802311247</v>
+        <v>486.9785028021612</v>
       </c>
       <c r="E39" t="n">
-        <v>242.9406802311247</v>
+        <v>357.410220381821</v>
       </c>
       <c r="F39" t="n">
-        <v>242.9406802311247</v>
+        <v>232.9784142649528</v>
       </c>
       <c r="G39" t="n">
-        <v>124.0259447576385</v>
+        <v>114.0636787914666</v>
       </c>
       <c r="H39" t="n">
-        <v>46.78761417024706</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="I39" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="J39" t="n">
-        <v>61.23763085900504</v>
+        <v>255.9726258387324</v>
       </c>
       <c r="K39" t="n">
-        <v>153.7627463186538</v>
+        <v>605.4899468074753</v>
       </c>
       <c r="L39" t="n">
-        <v>308.2838341134487</v>
+        <v>760.0110346022702</v>
       </c>
       <c r="M39" t="n">
-        <v>763.9975181388789</v>
+        <v>952.9118200819095</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.035672710264</v>
+        <v>1160.283734554229</v>
       </c>
       <c r="O39" t="n">
-        <v>1613.749356735695</v>
+        <v>1335.545656025303</v>
       </c>
       <c r="P39" t="n">
-        <v>1741.846007022036</v>
+        <v>1463.642306311644</v>
       </c>
       <c r="Q39" t="n">
-        <v>1795.027747734905</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R39" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S39" t="n">
-        <v>1727.606137469591</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T39" t="n">
-        <v>1555.237811527371</v>
+        <v>1668.899084261538</v>
       </c>
       <c r="U39" t="n">
-        <v>1345.250002578029</v>
+        <v>1458.911275312196</v>
       </c>
       <c r="V39" t="n">
-        <v>1122.710000949096</v>
+        <v>1236.371273683263</v>
       </c>
       <c r="W39" t="n">
-        <v>893.4472766250867</v>
+        <v>1006.25402781655</v>
       </c>
       <c r="X39" t="n">
-        <v>704.1401989750984</v>
+        <v>816.9469501665617</v>
       </c>
       <c r="Y39" t="n">
-        <v>524.8259820506057</v>
+        <v>637.632733242069</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>529.8833335152726</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="C40" t="n">
-        <v>359.6782155812618</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="D40" t="n">
-        <v>359.6782155812618</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="E40" t="n">
-        <v>204.1194034404644</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="F40" t="n">
-        <v>204.1194034404644</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="G40" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="H40" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="I40" t="n">
-        <v>36.82534820407517</v>
+        <v>36.82534820407516</v>
       </c>
       <c r="J40" t="n">
-        <v>73.57286024254927</v>
+        <v>73.57286024254921</v>
       </c>
       <c r="K40" t="n">
         <v>264.7227572412592</v>
       </c>
       <c r="L40" t="n">
-        <v>568.7357768650521</v>
+        <v>568.7357768650522</v>
       </c>
       <c r="M40" t="n">
-        <v>902.5168747721759</v>
+        <v>902.5168747721755</v>
       </c>
       <c r="N40" t="n">
-        <v>1229.689057252183</v>
+        <v>1229.689057252182</v>
       </c>
       <c r="O40" t="n">
-        <v>1525.385012037128</v>
+        <v>1525.385012037127</v>
       </c>
       <c r="P40" t="n">
-        <v>1759.058113865676</v>
+        <v>1759.058113865675</v>
       </c>
       <c r="Q40" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R40" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S40" t="n">
-        <v>1669.880320143728</v>
+        <v>1655.181484924533</v>
       </c>
       <c r="T40" t="n">
-        <v>1438.263080786123</v>
+        <v>1423.564245566928</v>
       </c>
       <c r="U40" t="n">
-        <v>1438.263080786123</v>
+        <v>1138.177817372329</v>
       </c>
       <c r="V40" t="n">
-        <v>1172.283735606947</v>
+        <v>872.1984721931532</v>
       </c>
       <c r="W40" t="n">
-        <v>1172.283735606947</v>
+        <v>588.8680701243309</v>
       </c>
       <c r="X40" t="n">
-        <v>938.2034133899306</v>
+        <v>354.7877479073139</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.0913522065739</v>
+        <v>131.6756867239573</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>348.8277973689874</v>
+        <v>839.0104298356256</v>
       </c>
       <c r="C41" t="n">
-        <v>348.8277973689874</v>
+        <v>727.8848205441782</v>
       </c>
       <c r="D41" t="n">
-        <v>348.8277973689874</v>
+        <v>404.6566910325147</v>
       </c>
       <c r="E41" t="n">
-        <v>348.8277973689874</v>
+        <v>404.6566910325147</v>
       </c>
       <c r="F41" t="n">
-        <v>348.8277973689874</v>
+        <v>404.6566910325147</v>
       </c>
       <c r="G41" t="n">
-        <v>25.59966785732376</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="H41" t="n">
-        <v>25.59966785732376</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="I41" t="n">
-        <v>25.59966785732376</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J41" t="n">
         <v>87.12469248054276</v>
       </c>
       <c r="K41" t="n">
-        <v>212.3147925332974</v>
+        <v>212.3147925332972</v>
       </c>
       <c r="L41" t="n">
-        <v>391.6103269222914</v>
+        <v>391.6103269222912</v>
       </c>
       <c r="M41" t="n">
         <v>611.6962898196853</v>
       </c>
       <c r="N41" t="n">
-        <v>838.3424491357905</v>
+        <v>838.3424491357904</v>
       </c>
       <c r="O41" t="n">
         <v>1043.69007063873</v>
@@ -7432,31 +7432,31 @@
         <v>1196.523864148038</v>
       </c>
       <c r="Q41" t="n">
-        <v>1279.983392866188</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="R41" t="n">
-        <v>1279.983392866188</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="S41" t="n">
-        <v>1279.983392866188</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="T41" t="n">
-        <v>1065.851307311686</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="U41" t="n">
-        <v>1065.851307311686</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="V41" t="n">
-        <v>742.6231778000219</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="W41" t="n">
-        <v>419.3950482883583</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="X41" t="n">
-        <v>348.8277973689874</v>
+        <v>1162.238559347289</v>
       </c>
       <c r="Y41" t="n">
-        <v>348.8277973689874</v>
+        <v>1162.238559347289</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>425.2576011492375</v>
+        <v>343.9767049802385</v>
       </c>
       <c r="C42" t="n">
-        <v>274.6033707093297</v>
+        <v>343.9767049802385</v>
       </c>
       <c r="D42" t="n">
-        <v>144.51440333081</v>
+        <v>290.9231601860942</v>
       </c>
       <c r="E42" t="n">
-        <v>144.51440333081</v>
+        <v>154.4766692969819</v>
       </c>
       <c r="F42" t="n">
-        <v>144.51440333081</v>
+        <v>154.4766692969819</v>
       </c>
       <c r="G42" t="n">
-        <v>25.59966785732376</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="H42" t="n">
-        <v>25.59966785732376</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="I42" t="n">
-        <v>25.59966785732376</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J42" t="n">
-        <v>50.01195051225363</v>
+        <v>229.8845147206473</v>
       </c>
       <c r="K42" t="n">
-        <v>142.5370659719024</v>
+        <v>322.4096301802959</v>
       </c>
       <c r="L42" t="n">
-        <v>297.0581537666973</v>
+        <v>476.9307179750908</v>
       </c>
       <c r="M42" t="n">
-        <v>489.9589392463366</v>
+        <v>669.8315034547301</v>
       </c>
       <c r="N42" t="n">
-        <v>734.7438409478644</v>
+        <v>877.2034179270497</v>
       </c>
       <c r="O42" t="n">
-        <v>910.0057624189383</v>
+        <v>1052.465339398123</v>
       </c>
       <c r="P42" t="n">
-        <v>1226.80165215332</v>
+        <v>1180.561989684465</v>
       </c>
       <c r="Q42" t="n">
-        <v>1279.983392866188</v>
+        <v>1233.743730397333</v>
       </c>
       <c r="R42" t="n">
-        <v>1279.983392866188</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="S42" t="n">
-        <v>1279.983392866188</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="T42" t="n">
-        <v>1279.983392866188</v>
+        <v>1107.615066923967</v>
       </c>
       <c r="U42" t="n">
-        <v>1209.025400010338</v>
+        <v>897.6272579746255</v>
       </c>
       <c r="V42" t="n">
-        <v>986.4853983814048</v>
+        <v>675.0872563456926</v>
       </c>
       <c r="W42" t="n">
-        <v>756.3681525146917</v>
+        <v>675.0872563456926</v>
       </c>
       <c r="X42" t="n">
-        <v>756.3681525146917</v>
+        <v>675.0872563456926</v>
       </c>
       <c r="Y42" t="n">
-        <v>577.0539355901989</v>
+        <v>495.7730394211998</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>769.8998916665244</v>
+        <v>67.98825392316749</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6947737325136</v>
+        <v>67.98825392316749</v>
       </c>
       <c r="D43" t="n">
-        <v>444.0616606350283</v>
+        <v>67.98825392316749</v>
       </c>
       <c r="E43" t="n">
-        <v>444.0616606350283</v>
+        <v>67.98825392316749</v>
       </c>
       <c r="F43" t="n">
-        <v>444.0616606350283</v>
+        <v>67.98825392316749</v>
       </c>
       <c r="G43" t="n">
-        <v>276.7676053986391</v>
+        <v>67.98825392316749</v>
       </c>
       <c r="H43" t="n">
-        <v>129.8243152106208</v>
+        <v>67.98825392316749</v>
       </c>
       <c r="I43" t="n">
-        <v>25.59966785732376</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J43" t="n">
-        <v>25.59966785732376</v>
+        <v>62.34717989579779</v>
       </c>
       <c r="K43" t="n">
-        <v>51.89449211335233</v>
+        <v>253.4970768945077</v>
       </c>
       <c r="L43" t="n">
-        <v>104.9815826763687</v>
+        <v>557.5100965183008</v>
       </c>
       <c r="M43" t="n">
-        <v>421.7774724107502</v>
+        <v>615.6008741168768</v>
       </c>
       <c r="N43" t="n">
-        <v>738.5733621451318</v>
+        <v>677.4177747022968</v>
       </c>
       <c r="O43" t="n">
-        <v>1034.269316930077</v>
+        <v>964.100994699557</v>
       </c>
       <c r="P43" t="n">
-        <v>1267.942418758625</v>
+        <v>1197.774096528105</v>
       </c>
       <c r="Q43" t="n">
-        <v>1279.983392866188</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="R43" t="n">
-        <v>1235.597453241146</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="S43" t="n">
-        <v>1235.597453241146</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="T43" t="n">
-        <v>1003.980213883541</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="U43" t="n">
-        <v>1003.980213883541</v>
+        <v>808.5110393923635</v>
       </c>
       <c r="V43" t="n">
-        <v>1003.980213883541</v>
+        <v>808.5110393923635</v>
       </c>
       <c r="W43" t="n">
-        <v>1003.980213883541</v>
+        <v>525.1806373235411</v>
       </c>
       <c r="X43" t="n">
-        <v>769.8998916665244</v>
+        <v>291.1003151065241</v>
       </c>
       <c r="Y43" t="n">
-        <v>769.8998916665244</v>
+        <v>67.98825392316749</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.2990043311967</v>
+        <v>633.5271338428604</v>
       </c>
       <c r="C44" t="n">
-        <v>25.59966785732373</v>
+        <v>310.2990043311969</v>
       </c>
       <c r="D44" t="n">
-        <v>25.59966785732373</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="E44" t="n">
-        <v>25.59966785732373</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="F44" t="n">
-        <v>25.59966785732373</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="G44" t="n">
-        <v>25.59966785732373</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="H44" t="n">
-        <v>25.59966785732373</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="I44" t="n">
-        <v>25.59966785732373</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J44" t="n">
         <v>87.12469248054286</v>
       </c>
       <c r="K44" t="n">
-        <v>212.3147925332974</v>
+        <v>212.3147925332973</v>
       </c>
       <c r="L44" t="n">
-        <v>391.6103269222914</v>
+        <v>391.6103269222913</v>
       </c>
       <c r="M44" t="n">
-        <v>611.6962898196853</v>
+        <v>611.696289819685</v>
       </c>
       <c r="N44" t="n">
-        <v>838.3424491357905</v>
+        <v>838.3424491357903</v>
       </c>
       <c r="O44" t="n">
         <v>1043.69007063873</v>
       </c>
       <c r="P44" t="n">
-        <v>1196.523864148038</v>
+        <v>1196.523864148037</v>
       </c>
       <c r="Q44" t="n">
-        <v>1279.983392866188</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="R44" t="n">
-        <v>1279.983392866186</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="S44" t="n">
-        <v>1279.983392866186</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="T44" t="n">
-        <v>1279.983392866186</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="U44" t="n">
-        <v>1279.983392866186</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="V44" t="n">
-        <v>1279.983392866186</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="W44" t="n">
-        <v>956.7552633545231</v>
+        <v>956.7552633545239</v>
       </c>
       <c r="X44" t="n">
-        <v>956.7552633545231</v>
+        <v>633.5271338428604</v>
       </c>
       <c r="Y44" t="n">
-        <v>633.5271338428599</v>
+        <v>633.5271338428604</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>524.3327918567753</v>
+        <v>382.3692303242811</v>
       </c>
       <c r="C45" t="n">
-        <v>373.6785614168675</v>
+        <v>231.7149998843733</v>
       </c>
       <c r="D45" t="n">
-        <v>373.6785614168675</v>
+        <v>231.7149998843733</v>
       </c>
       <c r="E45" t="n">
-        <v>237.2320705277552</v>
+        <v>231.7149998843733</v>
       </c>
       <c r="F45" t="n">
-        <v>112.800264410887</v>
+        <v>231.7149998843733</v>
       </c>
       <c r="G45" t="n">
-        <v>112.800264410887</v>
+        <v>112.8002644108871</v>
       </c>
       <c r="H45" t="n">
-        <v>35.56193382349562</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="I45" t="n">
-        <v>25.59966785732373</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J45" t="n">
-        <v>50.0119505122536</v>
+        <v>229.8845147206473</v>
       </c>
       <c r="K45" t="n">
-        <v>142.5370659719023</v>
+        <v>322.4096301802959</v>
       </c>
       <c r="L45" t="n">
-        <v>459.3329557062834</v>
+        <v>476.9307179750908</v>
       </c>
       <c r="M45" t="n">
-        <v>652.2337411859228</v>
+        <v>669.8315034547301</v>
       </c>
       <c r="N45" t="n">
-        <v>859.6056556582425</v>
+        <v>877.2034179270497</v>
       </c>
       <c r="O45" t="n">
-        <v>1052.465339398122</v>
+        <v>1052.465339398123</v>
       </c>
       <c r="P45" t="n">
-        <v>1180.561989684464</v>
+        <v>1180.561989684465</v>
       </c>
       <c r="Q45" t="n">
-        <v>1233.743730397332</v>
+        <v>1233.743730397333</v>
       </c>
       <c r="R45" t="n">
-        <v>1279.983392866186</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="S45" t="n">
-        <v>1166.322120132019</v>
+        <v>1166.32212013202</v>
       </c>
       <c r="T45" t="n">
-        <v>993.9537941897988</v>
+        <v>993.9537941898</v>
       </c>
       <c r="U45" t="n">
-        <v>993.9537941897988</v>
+        <v>783.9659852404582</v>
       </c>
       <c r="V45" t="n">
-        <v>771.4137925608659</v>
+        <v>764.2828106319556</v>
       </c>
       <c r="W45" t="n">
-        <v>771.4137925608659</v>
+        <v>534.1655647652425</v>
       </c>
       <c r="X45" t="n">
-        <v>582.1067149108776</v>
+        <v>534.1655647652425</v>
       </c>
       <c r="Y45" t="n">
-        <v>524.3327918567753</v>
+        <v>534.1655647652425</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>348.5268361911982</v>
+        <v>444.0616606350283</v>
       </c>
       <c r="C46" t="n">
-        <v>348.5268361911982</v>
+        <v>444.0616606350283</v>
       </c>
       <c r="D46" t="n">
-        <v>192.8937230937129</v>
+        <v>444.0616606350283</v>
       </c>
       <c r="E46" t="n">
-        <v>192.8937230937129</v>
+        <v>444.0616606350283</v>
       </c>
       <c r="F46" t="n">
-        <v>192.8937230937129</v>
+        <v>444.0616606350283</v>
       </c>
       <c r="G46" t="n">
-        <v>25.59966785732373</v>
+        <v>276.767605398639</v>
       </c>
       <c r="H46" t="n">
-        <v>25.59966785732373</v>
+        <v>129.8243152106207</v>
       </c>
       <c r="I46" t="n">
-        <v>25.59966785732373</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="J46" t="n">
-        <v>25.59966785732373</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="K46" t="n">
-        <v>51.8944921133523</v>
+        <v>216.7495648560337</v>
       </c>
       <c r="L46" t="n">
-        <v>355.9075117371453</v>
+        <v>520.7625844798267</v>
       </c>
       <c r="M46" t="n">
-        <v>672.7034014715264</v>
+        <v>837.5584742142081</v>
       </c>
       <c r="N46" t="n">
-        <v>989.4992912059074</v>
+        <v>899.3753747996282</v>
       </c>
       <c r="O46" t="n">
-        <v>1254.814427419843</v>
+        <v>1195.071329584573</v>
       </c>
       <c r="P46" t="n">
-        <v>1279.983392866186</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="Q46" t="n">
-        <v>1279.983392866186</v>
+        <v>1279.983392866187</v>
       </c>
       <c r="R46" t="n">
-        <v>1199.247434343868</v>
+        <v>1199.247434343869</v>
       </c>
       <c r="S46" t="n">
-        <v>1199.247434343868</v>
+        <v>1013.161509064644</v>
       </c>
       <c r="T46" t="n">
-        <v>967.6301949862627</v>
+        <v>781.5442697070391</v>
       </c>
       <c r="U46" t="n">
-        <v>682.2437667916636</v>
+        <v>496.15784151244</v>
       </c>
       <c r="V46" t="n">
-        <v>682.2437667916636</v>
+        <v>444.0616606350283</v>
       </c>
       <c r="W46" t="n">
-        <v>398.9133647228412</v>
+        <v>444.0616606350283</v>
       </c>
       <c r="X46" t="n">
-        <v>348.5268361911982</v>
+        <v>444.0616606350283</v>
       </c>
       <c r="Y46" t="n">
-        <v>348.5268361911982</v>
+        <v>444.0616606350283</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.9636043063713</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.43258425650522</v>
+        <v>31.69417343183895</v>
       </c>
       <c r="R12" t="n">
         <v>24.3070751391412</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.15922898751146</v>
+        <v>15.35383743468674</v>
       </c>
       <c r="K13" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>230.6305995604009</v>
       </c>
       <c r="N13" t="n">
-        <v>257.5545344939002</v>
+        <v>257.5545344939003</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>18.8953217985019</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>17.77551744323993</v>
       </c>
       <c r="L15" t="n">
-        <v>117.8669206214003</v>
+        <v>163.9139413531178</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>110.5292679414766</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>24.3070751391412</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.35383743468674</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>261.3182950866722</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>186.6774413317594</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>254.3449995307766</v>
+        <v>245.2412270179638</v>
       </c>
       <c r="P16" t="n">
         <v>210.6102387699041</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>252.89501264898</v>
+        <v>196.3447654826633</v>
       </c>
       <c r="P17" t="n">
-        <v>302.7194691599273</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.03861834404205</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>212.8813566063038</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>250.8502722758688</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>205.43982922799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>24.3070751391412</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.47253646344703</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
         <v>166.520275497658</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>154.1962018014794</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>305.9392833496189</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>196.3447654826633</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>259.588086372823</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>125.3638047977106</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>330.92629670615</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>26.48501489800094</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>439.0629838362182</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>411.1400611528313</v>
+        <v>281.6859547891634</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>370.66835209189</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>388.4853864439764</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>66.98220793742686</v>
+        <v>263.5748913691515</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>24.3070751391412</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>439.0629838362181</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>224.4448794985896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>336.5821158934395</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>411.1400611528312</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>121.9640115558112</v>
       </c>
       <c r="R26" t="n">
         <v>7.03861834404205</v>
@@ -9956,16 +9956,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>33.95782188484935</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>356.0510500790814</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>48.45690712996857</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>377.1649514469739</v>
       </c>
       <c r="L29" t="n">
-        <v>384.4110299612287</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>134.1812394736284</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>358.0957904521927</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>102.5176150018526</v>
+        <v>7.03861834404205</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>409.4357234907227</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>356.0510500790815</v>
+        <v>263.5748913691515</v>
       </c>
       <c r="O30" t="n">
-        <v>60.64917290348856</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>24.3070751391412</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>217.8184184695882</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>343.208576922441</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>411.1400611528312</v>
+        <v>411.1400611528313</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>297.2362757235946</v>
       </c>
       <c r="R32" t="n">
-        <v>7.03861834404205</v>
+        <v>7.038618344042078</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.523485519954477</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>388.4853864439764</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>436.1270745093622</v>
@@ -10451,7 +10451,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>48.45690712996904</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>128.924099721647</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>279.2102521580164</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>12.61350998245732</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>7.03861834404205</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>366.8571399654358</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>304.2349456875104</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>283.2846086407641</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>126.2987630965772</v>
+        <v>112.9185847188388</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>24.30707513914122</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>224.4030963794572</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>291.8237621404733</v>
       </c>
       <c r="R38" t="n">
-        <v>7.038618344042021</v>
+        <v>7.03861834404205</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>259.5880863728225</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>265.4675742886777</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>188.551757675824</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>283.2846086407641</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>24.3070751391412</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>278.4750710187352</v>
+        <v>278.4750710187346</v>
       </c>
       <c r="N40" t="n">
         <v>268.0356382773604</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>7.038618344042021</v>
+        <v>7.03861834404205</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>181.6894587963573</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>37.79089619111929</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>190.6052923717572</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>24.30707513914119</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>15.35383743468672</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>261.3182950866723</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>257.5545344939003</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>254.3449995307766</v>
+        <v>245.2412270179638</v>
       </c>
       <c r="P43" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.05792190715135</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>7.038618344040446</v>
+        <v>7.03861834404205</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>181.6894587963573</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>163.9139413531174</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>17.77551744323833</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>15.35383743468672</v>
+        <v>15.35383743468674</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>261.3182950866719</v>
+        <v>261.3182950866722</v>
       </c>
       <c r="N46" t="n">
-        <v>257.5545344939</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>223.6573040045049</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>60.34656346997104</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.89532179850187</v>
+        <v>18.8953217985019</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.489798254283</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>107.3914033729643</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.586717495499</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>78.56184141807415</v>
+        <v>180.5382529184981</v>
       </c>
       <c r="F11" t="n">
-        <v>412.7254940853221</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>406.9123771362669</v>
       </c>
       <c r="H11" t="n">
-        <v>299.143563087602</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I11" t="n">
-        <v>55.27060472689227</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>116.5673851837093</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0257022040986</v>
       </c>
       <c r="V11" t="n">
-        <v>18.68989298697005</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813955</v>
+        <v>47.29319646484851</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162738</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.52995377205815</v>
+        <v>72.52995377205798</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38.33965415290737</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
         <v>117.7255881187514</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I12" t="n">
-        <v>9.862643306510179</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8879308598484</v>
+        <v>109.8994568363588</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S13" t="n">
-        <v>184.2250660264325</v>
+        <v>79.8293639259922</v>
       </c>
       <c r="T13" t="n">
         <v>229.301066964029</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>240.9702199897864</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.49395003773606</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.586717495499</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>92.72964586877515</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>406.9123771362669</v>
+        <v>86.91652891971995</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>66.88845914972856</v>
       </c>
       <c r="I14" t="n">
-        <v>55.27060472689227</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>116.5673851837093</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.9907646989572</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>35.9811129654376</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813955</v>
+        <v>47.29319646484851</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162738</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>117.7255881187514</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.862643306510179</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T15" t="n">
-        <v>92.06581786753182</v>
+        <v>21.36842825731136</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6211146840253</v>
+        <v>161.1420159430135</v>
       </c>
       <c r="H16" t="n">
-        <v>64.52989514566538</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>79.92859893709536</v>
       </c>
       <c r="S16" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.586717495499</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>406.9123771362669</v>
       </c>
       <c r="H17" t="n">
-        <v>299.143563087602</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>116.5673851837093</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T17" t="n">
-        <v>81.16251200899578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.0257022040986</v>
@@ -23794,10 +23794,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813955</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162738</v>
+        <v>282.8351061784688</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>52.86655090584129</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>76.46594728151749</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>58.33137206493902</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23901,13 +23901,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6211146840253</v>
+        <v>43.24688896206609</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I19" t="n">
         <v>103.182400879764</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>251.6201073527634</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.489798254283</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.586717495499</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.7254940853221</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>406.9123771362669</v>
+        <v>240.0346697364396</v>
       </c>
       <c r="H20" t="n">
-        <v>299.143563087602</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>55.27060472689227</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>211.9907646989572</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V20" t="n">
-        <v>102.2084253169633</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813955</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162738</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24059,10 +24059,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>157.487459017745</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>170.5844617841499</v>
       </c>
     </row>
     <row r="22">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>103.182400879764</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>65.94699399637079</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.5298305570822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>367.6239063594384</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.586717495499</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.7254940853221</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>406.9123771362669</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I23" t="n">
-        <v>55.27060472689227</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T23" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162738</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>20.07258416455437</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>89.45410336970465</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>45.213502849088</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>307.4223883934075</v>
       </c>
       <c r="H26" t="n">
-        <v>125.4701804006313</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I26" t="n">
         <v>55.27060472689222</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>6.616584505416824</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3827023067999</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,13 +24685,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>5.574602035579858</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>406.9123771362669</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>289.7390808295015</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>169.3827023067999</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>154.5298305570823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>288.496535301357</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>406.9123771362669</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>55.27060472689223</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>303.8127743008117</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6211146840253</v>
+        <v>34.0302693824126</v>
       </c>
       <c r="H34" t="n">
         <v>145.4738572861381</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V34" t="n">
-        <v>169.3827023067999</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>43.44509718402014</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25174,7 +25174,7 @@
         <v>299.1435630876019</v>
       </c>
       <c r="I35" t="n">
-        <v>55.27060472689222</v>
+        <v>55.27060472689223</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T35" t="n">
         <v>211.9907646989572</v>
       </c>
       <c r="U35" t="n">
-        <v>80.25372351625953</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.139924602763358</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
@@ -25247,7 +25247,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>38.56202461952108</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.26853351449023</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>60.17494683182711</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25402,16 +25402,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>406.9123771362669</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>76.56334744917623</v>
       </c>
       <c r="I38" t="n">
-        <v>55.2706047268922</v>
+        <v>55.27060472689222</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U38" t="n">
         <v>253.0257022040986</v>
@@ -25456,7 +25456,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>32.11344668078254</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>6.809426384084389</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>9.862643306510179</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.8459763272764178</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>89.45410336970498</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H40" t="n">
         <v>145.4738572861381</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>79.92859893709533</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S40" t="n">
-        <v>14.55184686700255</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>76.49395003773606</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>279.2293932835657</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>61.59086927895208</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,13 +25642,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>86.91652891971989</v>
+        <v>86.91652891972001</v>
       </c>
       <c r="H41" t="n">
         <v>299.1435630876019</v>
       </c>
       <c r="I41" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U41" t="n">
         <v>253.0257022040986</v>
       </c>
       <c r="V41" t="n">
-        <v>18.68989298696982</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>47.29319646484845</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>315.6965006060965</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25709,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>76.26506835853164</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
@@ -25727,7 +25727,7 @@
         <v>76.46594728151749</v>
       </c>
       <c r="I42" t="n">
-        <v>9.862643306510172</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,16 +25760,16 @@
         <v>112.5246600068256</v>
       </c>
       <c r="T42" t="n">
-        <v>170.6446426827978</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>137.6395179325568</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -25788,10 +25788,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25800,13 +25800,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.21770067457873</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.98651870830437</v>
+        <v>79.92859893709536</v>
       </c>
       <c r="S43" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>76.49395003773634</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>107.3914033729644</v>
+        <v>69.24789826555184</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>155.0049791132568</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25885,7 +25885,7 @@
         <v>299.1435630876019</v>
       </c>
       <c r="I44" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>47.29319646484885</v>
+        <v>47.29319646484856</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>65.56223079972688</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.52995377205832</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,13 +25952,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26000,19 +26000,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8879308598484</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>200.8282587502261</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>120.3248909316866</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26028,7 +26028,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>211.7443326587464</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>181.8568557485201</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>343962.4220239208</v>
+        <v>343962.4220239209</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>343962.4220239209</v>
+        <v>343962.422023921</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>451980.8252466674</v>
+        <v>451980.8252466677</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>519651.5759403056</v>
+        <v>519651.5759403057</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>519651.5759403056</v>
+        <v>519651.5759403057</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>343962.422023921</v>
+        <v>343962.4220239209</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343962.4220239207</v>
+        <v>343962.4220239209</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>593667.4303385664</v>
       </c>
       <c r="C2" t="n">
+        <v>593667.4303385664</v>
+      </c>
+      <c r="D2" t="n">
         <v>593667.4303385663</v>
-      </c>
-      <c r="D2" t="n">
-        <v>593667.4303385662</v>
       </c>
       <c r="E2" t="n">
         <v>292877.2293841328</v>
@@ -26328,34 +26328,34 @@
         <v>292877.229384133</v>
       </c>
       <c r="G2" t="n">
-        <v>358469.2108077715</v>
+        <v>358469.2108077716</v>
       </c>
       <c r="H2" t="n">
-        <v>358469.2108077716</v>
+        <v>358469.2108077717</v>
       </c>
       <c r="I2" t="n">
         <v>399560.8997236664</v>
       </c>
       <c r="J2" t="n">
-        <v>399560.8997236667</v>
+        <v>399560.8997236664</v>
       </c>
       <c r="K2" t="n">
+        <v>399560.8997236664</v>
+      </c>
+      <c r="L2" t="n">
         <v>399560.8997236663</v>
       </c>
-      <c r="L2" t="n">
-        <v>399560.8997236667</v>
-      </c>
       <c r="M2" t="n">
-        <v>358469.2108077718</v>
+        <v>358469.2108077717</v>
       </c>
       <c r="N2" t="n">
-        <v>358469.2108077716</v>
+        <v>358469.2108077717</v>
       </c>
       <c r="O2" t="n">
-        <v>292877.2293841328</v>
+        <v>292877.229384133</v>
       </c>
       <c r="P2" t="n">
-        <v>292877.2293841328</v>
+        <v>292877.229384133</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>518968.6482945237</v>
+        <v>518968.6482945238</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38459.88247299204</v>
+        <v>38459.88247299201</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53527.79072728459</v>
+        <v>53527.79072728465</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>388814.6843578059</v>
       </c>
       <c r="E4" t="n">
-        <v>15862.40729603126</v>
+        <v>15862.40729603131</v>
       </c>
       <c r="F4" t="n">
-        <v>15862.40729603127</v>
+        <v>15862.40729603132</v>
       </c>
       <c r="G4" t="n">
-        <v>50459.96546379011</v>
+        <v>50459.96546379026</v>
       </c>
       <c r="H4" t="n">
-        <v>50459.96546379021</v>
+        <v>50459.96546379026</v>
       </c>
       <c r="I4" t="n">
         <v>72134.44558502601</v>
       </c>
       <c r="J4" t="n">
-        <v>72134.44558502601</v>
+        <v>72134.44558502603</v>
       </c>
       <c r="K4" t="n">
         <v>72134.44558502601</v>
       </c>
       <c r="L4" t="n">
-        <v>72134.44558502601</v>
+        <v>72134.44558502606</v>
       </c>
       <c r="M4" t="n">
         <v>50459.96546379024</v>
       </c>
       <c r="N4" t="n">
-        <v>50459.96546379024</v>
+        <v>50459.96546379023</v>
       </c>
       <c r="O4" t="n">
         <v>15862.40729603131</v>
       </c>
       <c r="P4" t="n">
-        <v>15862.40729603121</v>
+        <v>15862.40729603131</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30945.203584029</v>
+        <v>30945.20358402901</v>
       </c>
       <c r="F5" t="n">
-        <v>30945.203584029</v>
+        <v>30945.20358402901</v>
       </c>
       <c r="G5" t="n">
-        <v>39476.72064756005</v>
+        <v>39476.72064756008</v>
       </c>
       <c r="H5" t="n">
         <v>39476.72064756008</v>
@@ -26499,19 +26499,19 @@
         <v>45872.92793799539</v>
       </c>
       <c r="L5" t="n">
-        <v>45872.92793799539</v>
+        <v>45872.92793799538</v>
       </c>
       <c r="M5" t="n">
+        <v>39476.72064756007</v>
+      </c>
+      <c r="N5" t="n">
         <v>39476.72064756008</v>
       </c>
-      <c r="N5" t="n">
-        <v>39476.72064756009</v>
-      </c>
       <c r="O5" t="n">
-        <v>30945.20358402901</v>
+        <v>30945.203584029</v>
       </c>
       <c r="P5" t="n">
-        <v>30945.20358402899</v>
+        <v>30945.203584029</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171225.1459807605</v>
+        <v>171220.8164129741</v>
       </c>
       <c r="C6" t="n">
-        <v>171225.1459807604</v>
+        <v>171220.8164129741</v>
       </c>
       <c r="D6" t="n">
-        <v>171225.1459807603</v>
+        <v>171220.816412974</v>
       </c>
       <c r="E6" t="n">
-        <v>-272899.0297904511</v>
+        <v>-273814.8448156753</v>
       </c>
       <c r="F6" t="n">
-        <v>246069.6185040727</v>
+        <v>245153.8034788485</v>
       </c>
       <c r="G6" t="n">
-        <v>230072.6422234293</v>
+        <v>229355.5907782768</v>
       </c>
       <c r="H6" t="n">
-        <v>268532.5246964213</v>
+        <v>267815.4732512689</v>
       </c>
       <c r="I6" t="n">
-        <v>253578.430166437</v>
+        <v>252985.8989907267</v>
       </c>
       <c r="J6" t="n">
-        <v>281553.5262006453</v>
+        <v>280960.9950249346</v>
       </c>
       <c r="K6" t="n">
-        <v>281553.5262006448</v>
+        <v>280960.9950249347</v>
       </c>
       <c r="L6" t="n">
-        <v>281553.5262006453</v>
+        <v>280960.9950249346</v>
       </c>
       <c r="M6" t="n">
-        <v>215004.7339691368</v>
+        <v>214287.6825239843</v>
       </c>
       <c r="N6" t="n">
-        <v>268532.5246964213</v>
+        <v>267815.473251269</v>
       </c>
       <c r="O6" t="n">
-        <v>246069.6185040725</v>
+        <v>245153.8034788486</v>
       </c>
       <c r="P6" t="n">
-        <v>246069.6185040727</v>
+        <v>245153.8034788486</v>
       </c>
     </row>
   </sheetData>
@@ -26767,19 +26767,19 @@
         <v>527.0392666267411</v>
       </c>
       <c r="L3" t="n">
+        <v>527.039266626741</v>
+      </c>
+      <c r="M3" t="n">
+        <v>527.039266626741</v>
+      </c>
+      <c r="N3" t="n">
         <v>527.0392666267411</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>527.0392666267411</v>
       </c>
-      <c r="N3" t="n">
-        <v>527.0392666267412</v>
-      </c>
-      <c r="O3" t="n">
-        <v>527.0392666267412</v>
-      </c>
       <c r="P3" t="n">
-        <v>527.0392666267412</v>
+        <v>527.0392666267411</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>319.9958482165468</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="F4" t="n">
         <v>319.9958482165469</v>
       </c>
       <c r="G4" t="n">
-        <v>460.3168525509392</v>
+        <v>460.3168525509396</v>
       </c>
       <c r="H4" t="n">
         <v>460.3168525509396</v>
       </c>
       <c r="I4" t="n">
-        <v>565.5176303541519</v>
+        <v>565.5176303541518</v>
       </c>
       <c r="J4" t="n">
         <v>565.5176303541518</v>
@@ -26822,16 +26822,16 @@
         <v>565.5176303541518</v>
       </c>
       <c r="M4" t="n">
-        <v>460.3168525509396</v>
+        <v>460.3168525509395</v>
       </c>
       <c r="N4" t="n">
-        <v>460.3168525509396</v>
+        <v>460.3168525509395</v>
       </c>
       <c r="O4" t="n">
-        <v>319.995848216547</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="P4" t="n">
-        <v>319.9958482165466</v>
+        <v>319.9958482165468</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>319.9958482165468</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>140.3210043343927</v>
+        <v>140.3210043343926</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.7950704133344</v>
+        <v>214.7950704133347</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>319.9958482165468</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>140.3210043343927</v>
+        <v>140.3210043343926</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.118750820610013</v>
+        <v>2.118750820610012</v>
       </c>
       <c r="H32" t="n">
-        <v>21.6986568415723</v>
+        <v>21.69865684157229</v>
       </c>
       <c r="I32" t="n">
-        <v>81.6831410115676</v>
+        <v>81.68314101156759</v>
       </c>
       <c r="J32" t="n">
         <v>179.8263274607492</v>
@@ -33426,31 +33426,31 @@
         <v>269.5130496971711</v>
       </c>
       <c r="L32" t="n">
-        <v>334.3547701234149</v>
+        <v>334.3547701234148</v>
       </c>
       <c r="M32" t="n">
-        <v>372.0341050294382</v>
+        <v>372.0341050294381</v>
       </c>
       <c r="N32" t="n">
-        <v>378.0540057984964</v>
+        <v>378.0540057984963</v>
       </c>
       <c r="O32" t="n">
-        <v>356.9856773260556</v>
+        <v>356.9856773260555</v>
       </c>
       <c r="P32" t="n">
         <v>304.6790164422458</v>
       </c>
       <c r="Q32" t="n">
-        <v>228.8012526791497</v>
+        <v>228.8012526791496</v>
       </c>
       <c r="R32" t="n">
         <v>133.0919812351438</v>
       </c>
       <c r="S32" t="n">
-        <v>48.28103432465072</v>
+        <v>48.2810343246507</v>
       </c>
       <c r="T32" t="n">
-        <v>9.274831717220335</v>
+        <v>9.274831717220334</v>
       </c>
       <c r="U32" t="n">
         <v>0.169500065648801</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.133631630102802</v>
+        <v>1.133631630102801</v>
       </c>
       <c r="H33" t="n">
-        <v>10.94849495388759</v>
+        <v>10.94849495388758</v>
       </c>
       <c r="I33" t="n">
-        <v>39.03073814169734</v>
+        <v>39.03073814169733</v>
       </c>
       <c r="J33" t="n">
-        <v>107.1033287019494</v>
+        <v>107.1033287019493</v>
       </c>
       <c r="K33" t="n">
-        <v>183.0566479188371</v>
+        <v>183.056647918837</v>
       </c>
       <c r="L33" t="n">
-        <v>246.1422537203474</v>
+        <v>246.1422537203473</v>
       </c>
       <c r="M33" t="n">
         <v>287.2364003115738</v>
@@ -33514,7 +33514,7 @@
         <v>294.838693129237</v>
       </c>
       <c r="O33" t="n">
-        <v>269.7198027990644</v>
+        <v>269.7198027990643</v>
       </c>
       <c r="P33" t="n">
         <v>216.4739206641043</v>
@@ -33523,16 +33523,16 @@
         <v>144.707083168912</v>
       </c>
       <c r="R33" t="n">
-        <v>70.38460243743538</v>
+        <v>70.38460243743536</v>
       </c>
       <c r="S33" t="n">
-        <v>21.05671032230422</v>
+        <v>21.05671032230421</v>
       </c>
       <c r="T33" t="n">
-        <v>4.569331000282782</v>
+        <v>4.569331000282781</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07458102829623697</v>
+        <v>0.07458102829623696</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,28 +33569,28 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9503986775236314</v>
+        <v>0.9503986775236312</v>
       </c>
       <c r="H34" t="n">
-        <v>8.449908241982838</v>
+        <v>8.449908241982836</v>
       </c>
       <c r="I34" t="n">
-        <v>28.58108022952885</v>
+        <v>28.58108022952884</v>
       </c>
       <c r="J34" t="n">
-        <v>67.19318650092073</v>
+        <v>67.19318650092072</v>
       </c>
       <c r="K34" t="n">
-        <v>110.419046352291</v>
+        <v>110.4190463522909</v>
       </c>
       <c r="L34" t="n">
         <v>141.2983633838315</v>
       </c>
       <c r="M34" t="n">
-        <v>148.979312695818</v>
+        <v>148.9793126958179</v>
       </c>
       <c r="N34" t="n">
-        <v>145.4369176250482</v>
+        <v>145.4369176250481</v>
       </c>
       <c r="O34" t="n">
         <v>134.3345330739766</v>
@@ -33599,19 +33599,19 @@
         <v>114.9464000524944</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.5829292606379</v>
+        <v>79.58292926063788</v>
       </c>
       <c r="R34" t="n">
-        <v>42.73338053665345</v>
+        <v>42.73338053665344</v>
       </c>
       <c r="S34" t="n">
         <v>16.56285695284364</v>
       </c>
       <c r="T34" t="n">
-        <v>4.060794349419151</v>
+        <v>4.06079434941915</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05183992786492541</v>
+        <v>0.0518399278649254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.118750820610013</v>
+        <v>2.118750820610012</v>
       </c>
       <c r="H35" t="n">
-        <v>21.6986568415723</v>
+        <v>21.69865684157229</v>
       </c>
       <c r="I35" t="n">
-        <v>81.6831410115676</v>
+        <v>81.68314101156759</v>
       </c>
       <c r="J35" t="n">
         <v>179.8263274607492</v>
@@ -33663,31 +33663,31 @@
         <v>269.5130496971711</v>
       </c>
       <c r="L35" t="n">
-        <v>334.3547701234149</v>
+        <v>334.3547701234148</v>
       </c>
       <c r="M35" t="n">
-        <v>372.0341050294382</v>
+        <v>372.0341050294381</v>
       </c>
       <c r="N35" t="n">
-        <v>378.0540057984964</v>
+        <v>378.0540057984963</v>
       </c>
       <c r="O35" t="n">
-        <v>356.9856773260556</v>
+        <v>356.9856773260555</v>
       </c>
       <c r="P35" t="n">
         <v>304.6790164422458</v>
       </c>
       <c r="Q35" t="n">
-        <v>228.8012526791497</v>
+        <v>228.8012526791496</v>
       </c>
       <c r="R35" t="n">
         <v>133.0919812351438</v>
       </c>
       <c r="S35" t="n">
-        <v>48.28103432465072</v>
+        <v>48.2810343246507</v>
       </c>
       <c r="T35" t="n">
-        <v>9.274831717220335</v>
+        <v>9.274831717220334</v>
       </c>
       <c r="U35" t="n">
         <v>0.169500065648801</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.133631630102802</v>
+        <v>1.133631630102801</v>
       </c>
       <c r="H36" t="n">
-        <v>10.94849495388759</v>
+        <v>10.94849495388758</v>
       </c>
       <c r="I36" t="n">
-        <v>39.03073814169734</v>
+        <v>39.03073814169733</v>
       </c>
       <c r="J36" t="n">
-        <v>107.1033287019494</v>
+        <v>107.1033287019493</v>
       </c>
       <c r="K36" t="n">
-        <v>183.0566479188371</v>
+        <v>183.056647918837</v>
       </c>
       <c r="L36" t="n">
-        <v>246.1422537203474</v>
+        <v>246.1422537203473</v>
       </c>
       <c r="M36" t="n">
         <v>287.2364003115738</v>
@@ -33751,7 +33751,7 @@
         <v>294.838693129237</v>
       </c>
       <c r="O36" t="n">
-        <v>269.7198027990644</v>
+        <v>269.7198027990643</v>
       </c>
       <c r="P36" t="n">
         <v>216.4739206641043</v>
@@ -33760,16 +33760,16 @@
         <v>144.707083168912</v>
       </c>
       <c r="R36" t="n">
-        <v>70.38460243743538</v>
+        <v>70.38460243743536</v>
       </c>
       <c r="S36" t="n">
-        <v>21.05671032230422</v>
+        <v>21.05671032230421</v>
       </c>
       <c r="T36" t="n">
-        <v>4.569331000282782</v>
+        <v>4.569331000282781</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07458102829623697</v>
+        <v>0.07458102829623696</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,28 +33806,28 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9503986775236314</v>
+        <v>0.9503986775236312</v>
       </c>
       <c r="H37" t="n">
-        <v>8.449908241982838</v>
+        <v>8.449908241982836</v>
       </c>
       <c r="I37" t="n">
-        <v>28.58108022952885</v>
+        <v>28.58108022952884</v>
       </c>
       <c r="J37" t="n">
-        <v>67.19318650092073</v>
+        <v>67.19318650092072</v>
       </c>
       <c r="K37" t="n">
-        <v>110.419046352291</v>
+        <v>110.4190463522909</v>
       </c>
       <c r="L37" t="n">
         <v>141.2983633838315</v>
       </c>
       <c r="M37" t="n">
-        <v>148.979312695818</v>
+        <v>148.9793126958179</v>
       </c>
       <c r="N37" t="n">
-        <v>145.4369176250482</v>
+        <v>145.4369176250481</v>
       </c>
       <c r="O37" t="n">
         <v>134.3345330739766</v>
@@ -33836,19 +33836,19 @@
         <v>114.9464000524944</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.5829292606379</v>
+        <v>79.58292926063788</v>
       </c>
       <c r="R37" t="n">
-        <v>42.73338053665345</v>
+        <v>42.73338053665344</v>
       </c>
       <c r="S37" t="n">
         <v>16.56285695284364</v>
       </c>
       <c r="T37" t="n">
-        <v>4.060794349419151</v>
+        <v>4.06079434941915</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05183992786492541</v>
+        <v>0.0518399278649254</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,40 +33891,40 @@
         <v>21.6986568415723</v>
       </c>
       <c r="I38" t="n">
-        <v>81.68314101156761</v>
+        <v>81.6831410115676</v>
       </c>
       <c r="J38" t="n">
-        <v>179.8263274607493</v>
+        <v>179.8263274607492</v>
       </c>
       <c r="K38" t="n">
-        <v>269.5130496971712</v>
+        <v>269.5130496971711</v>
       </c>
       <c r="L38" t="n">
         <v>334.3547701234149</v>
       </c>
       <c r="M38" t="n">
-        <v>372.0341050294383</v>
+        <v>372.0341050294382</v>
       </c>
       <c r="N38" t="n">
-        <v>378.0540057984965</v>
+        <v>378.0540057984964</v>
       </c>
       <c r="O38" t="n">
-        <v>356.9856773260557</v>
+        <v>356.9856773260556</v>
       </c>
       <c r="P38" t="n">
-        <v>304.6790164422459</v>
+        <v>304.6790164422458</v>
       </c>
       <c r="Q38" t="n">
         <v>228.8012526791497</v>
       </c>
       <c r="R38" t="n">
-        <v>133.0919812351439</v>
+        <v>133.0919812351438</v>
       </c>
       <c r="S38" t="n">
-        <v>48.28103432465073</v>
+        <v>48.28103432465072</v>
       </c>
       <c r="T38" t="n">
-        <v>9.274831717220337</v>
+        <v>9.274831717220335</v>
       </c>
       <c r="U38" t="n">
         <v>0.169500065648801</v>
@@ -33970,7 +33970,7 @@
         <v>10.94849495388759</v>
       </c>
       <c r="I39" t="n">
-        <v>39.03073814169735</v>
+        <v>39.03073814169734</v>
       </c>
       <c r="J39" t="n">
         <v>107.1033287019494</v>
@@ -33982,31 +33982,31 @@
         <v>246.1422537203474</v>
       </c>
       <c r="M39" t="n">
-        <v>287.2364003115739</v>
+        <v>287.2364003115738</v>
       </c>
       <c r="N39" t="n">
-        <v>294.8386931292371</v>
+        <v>294.838693129237</v>
       </c>
       <c r="O39" t="n">
         <v>269.7198027990644</v>
       </c>
       <c r="P39" t="n">
-        <v>216.4739206641044</v>
+        <v>216.4739206641043</v>
       </c>
       <c r="Q39" t="n">
         <v>144.707083168912</v>
       </c>
       <c r="R39" t="n">
-        <v>70.38460243743539</v>
+        <v>70.38460243743538</v>
       </c>
       <c r="S39" t="n">
         <v>21.05671032230422</v>
       </c>
       <c r="T39" t="n">
-        <v>4.569331000282783</v>
+        <v>4.569331000282782</v>
       </c>
       <c r="U39" t="n">
-        <v>0.074581028296237</v>
+        <v>0.07458102829623697</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9503986775236316</v>
+        <v>0.9503986775236314</v>
       </c>
       <c r="H40" t="n">
-        <v>8.44990824198284</v>
+        <v>8.449908241982838</v>
       </c>
       <c r="I40" t="n">
-        <v>28.58108022952886</v>
+        <v>28.58108022952885</v>
       </c>
       <c r="J40" t="n">
-        <v>67.19318650092075</v>
+        <v>67.19318650092073</v>
       </c>
       <c r="K40" t="n">
         <v>110.419046352291</v>
       </c>
       <c r="L40" t="n">
-        <v>141.2983633838316</v>
+        <v>141.2983633838315</v>
       </c>
       <c r="M40" t="n">
         <v>148.979312695818</v>
@@ -34070,22 +34070,22 @@
         <v>134.3345330739766</v>
       </c>
       <c r="P40" t="n">
-        <v>114.9464000524945</v>
+        <v>114.9464000524944</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.58292926063793</v>
+        <v>79.5829292606379</v>
       </c>
       <c r="R40" t="n">
-        <v>42.73338053665346</v>
+        <v>42.73338053665345</v>
       </c>
       <c r="S40" t="n">
-        <v>16.56285695284365</v>
+        <v>16.56285695284364</v>
       </c>
       <c r="T40" t="n">
-        <v>4.060794349419152</v>
+        <v>4.060794349419151</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05183992786492542</v>
+        <v>0.05183992786492541</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,40 +34128,40 @@
         <v>21.6986568415723</v>
       </c>
       <c r="I41" t="n">
-        <v>81.68314101156761</v>
+        <v>81.6831410115676</v>
       </c>
       <c r="J41" t="n">
-        <v>179.8263274607493</v>
+        <v>179.8263274607492</v>
       </c>
       <c r="K41" t="n">
-        <v>269.5130496971712</v>
+        <v>269.5130496971711</v>
       </c>
       <c r="L41" t="n">
         <v>334.3547701234149</v>
       </c>
       <c r="M41" t="n">
-        <v>372.0341050294383</v>
+        <v>372.0341050294382</v>
       </c>
       <c r="N41" t="n">
-        <v>378.0540057984965</v>
+        <v>378.0540057984964</v>
       </c>
       <c r="O41" t="n">
-        <v>356.9856773260557</v>
+        <v>356.9856773260556</v>
       </c>
       <c r="P41" t="n">
-        <v>304.6790164422459</v>
+        <v>304.6790164422458</v>
       </c>
       <c r="Q41" t="n">
         <v>228.8012526791497</v>
       </c>
       <c r="R41" t="n">
-        <v>133.0919812351439</v>
+        <v>133.0919812351438</v>
       </c>
       <c r="S41" t="n">
-        <v>48.28103432465073</v>
+        <v>48.28103432465072</v>
       </c>
       <c r="T41" t="n">
-        <v>9.274831717220337</v>
+        <v>9.274831717220335</v>
       </c>
       <c r="U41" t="n">
         <v>0.169500065648801</v>
@@ -34207,7 +34207,7 @@
         <v>10.94849495388759</v>
       </c>
       <c r="I42" t="n">
-        <v>39.03073814169735</v>
+        <v>39.03073814169734</v>
       </c>
       <c r="J42" t="n">
         <v>107.1033287019494</v>
@@ -34219,31 +34219,31 @@
         <v>246.1422537203474</v>
       </c>
       <c r="M42" t="n">
-        <v>287.2364003115739</v>
+        <v>287.2364003115738</v>
       </c>
       <c r="N42" t="n">
-        <v>294.8386931292371</v>
+        <v>294.838693129237</v>
       </c>
       <c r="O42" t="n">
         <v>269.7198027990644</v>
       </c>
       <c r="P42" t="n">
-        <v>216.4739206641044</v>
+        <v>216.4739206641043</v>
       </c>
       <c r="Q42" t="n">
         <v>144.707083168912</v>
       </c>
       <c r="R42" t="n">
-        <v>70.38460243743539</v>
+        <v>70.38460243743538</v>
       </c>
       <c r="S42" t="n">
         <v>21.05671032230422</v>
       </c>
       <c r="T42" t="n">
-        <v>4.569331000282783</v>
+        <v>4.569331000282782</v>
       </c>
       <c r="U42" t="n">
-        <v>0.074581028296237</v>
+        <v>0.07458102829623697</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9503986775236316</v>
+        <v>0.9503986775236314</v>
       </c>
       <c r="H43" t="n">
-        <v>8.44990824198284</v>
+        <v>8.449908241982838</v>
       </c>
       <c r="I43" t="n">
-        <v>28.58108022952886</v>
+        <v>28.58108022952885</v>
       </c>
       <c r="J43" t="n">
-        <v>67.19318650092075</v>
+        <v>67.19318650092073</v>
       </c>
       <c r="K43" t="n">
         <v>110.419046352291</v>
       </c>
       <c r="L43" t="n">
-        <v>141.2983633838316</v>
+        <v>141.2983633838315</v>
       </c>
       <c r="M43" t="n">
         <v>148.979312695818</v>
@@ -34307,22 +34307,22 @@
         <v>134.3345330739766</v>
       </c>
       <c r="P43" t="n">
-        <v>114.9464000524945</v>
+        <v>114.9464000524944</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.58292926063793</v>
+        <v>79.5829292606379</v>
       </c>
       <c r="R43" t="n">
-        <v>42.73338053665346</v>
+        <v>42.73338053665345</v>
       </c>
       <c r="S43" t="n">
-        <v>16.56285695284365</v>
+        <v>16.56285695284364</v>
       </c>
       <c r="T43" t="n">
-        <v>4.060794349419152</v>
+        <v>4.060794349419151</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05183992786492542</v>
+        <v>0.05183992786492541</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>21.6986568415723</v>
       </c>
       <c r="I44" t="n">
-        <v>81.68314101156761</v>
+        <v>81.6831410115676</v>
       </c>
       <c r="J44" t="n">
-        <v>179.8263274607493</v>
+        <v>179.8263274607492</v>
       </c>
       <c r="K44" t="n">
-        <v>269.5130496971712</v>
+        <v>269.5130496971711</v>
       </c>
       <c r="L44" t="n">
         <v>334.3547701234149</v>
       </c>
       <c r="M44" t="n">
-        <v>372.0341050294383</v>
+        <v>372.0341050294382</v>
       </c>
       <c r="N44" t="n">
-        <v>378.0540057984965</v>
+        <v>378.0540057984964</v>
       </c>
       <c r="O44" t="n">
-        <v>356.9856773260557</v>
+        <v>356.9856773260556</v>
       </c>
       <c r="P44" t="n">
-        <v>304.6790164422459</v>
+        <v>304.6790164422458</v>
       </c>
       <c r="Q44" t="n">
         <v>228.8012526791497</v>
       </c>
       <c r="R44" t="n">
-        <v>133.0919812351439</v>
+        <v>133.0919812351438</v>
       </c>
       <c r="S44" t="n">
-        <v>48.28103432465073</v>
+        <v>48.28103432465072</v>
       </c>
       <c r="T44" t="n">
-        <v>9.274831717220337</v>
+        <v>9.274831717220335</v>
       </c>
       <c r="U44" t="n">
         <v>0.169500065648801</v>
@@ -34444,7 +34444,7 @@
         <v>10.94849495388759</v>
       </c>
       <c r="I45" t="n">
-        <v>39.03073814169735</v>
+        <v>39.03073814169734</v>
       </c>
       <c r="J45" t="n">
         <v>107.1033287019494</v>
@@ -34456,31 +34456,31 @@
         <v>246.1422537203474</v>
       </c>
       <c r="M45" t="n">
-        <v>287.2364003115739</v>
+        <v>287.2364003115738</v>
       </c>
       <c r="N45" t="n">
-        <v>294.8386931292371</v>
+        <v>294.838693129237</v>
       </c>
       <c r="O45" t="n">
         <v>269.7198027990644</v>
       </c>
       <c r="P45" t="n">
-        <v>216.4739206641044</v>
+        <v>216.4739206641043</v>
       </c>
       <c r="Q45" t="n">
         <v>144.707083168912</v>
       </c>
       <c r="R45" t="n">
-        <v>70.38460243743539</v>
+        <v>70.38460243743538</v>
       </c>
       <c r="S45" t="n">
         <v>21.05671032230422</v>
       </c>
       <c r="T45" t="n">
-        <v>4.569331000282783</v>
+        <v>4.569331000282782</v>
       </c>
       <c r="U45" t="n">
-        <v>0.074581028296237</v>
+        <v>0.07458102829623697</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9503986775236316</v>
+        <v>0.9503986775236314</v>
       </c>
       <c r="H46" t="n">
-        <v>8.44990824198284</v>
+        <v>8.449908241982838</v>
       </c>
       <c r="I46" t="n">
-        <v>28.58108022952886</v>
+        <v>28.58108022952885</v>
       </c>
       <c r="J46" t="n">
-        <v>67.19318650092075</v>
+        <v>67.19318650092073</v>
       </c>
       <c r="K46" t="n">
         <v>110.419046352291</v>
       </c>
       <c r="L46" t="n">
-        <v>141.2983633838316</v>
+        <v>141.2983633838315</v>
       </c>
       <c r="M46" t="n">
         <v>148.979312695818</v>
@@ -34544,22 +34544,22 @@
         <v>134.3345330739766</v>
       </c>
       <c r="P46" t="n">
-        <v>114.9464000524945</v>
+        <v>114.9464000524944</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.58292926063793</v>
+        <v>79.5829292606379</v>
       </c>
       <c r="R46" t="n">
-        <v>42.73338053665346</v>
+        <v>42.73338053665345</v>
       </c>
       <c r="S46" t="n">
-        <v>16.56285695284365</v>
+        <v>16.56285695284364</v>
       </c>
       <c r="T46" t="n">
-        <v>4.060794349419152</v>
+        <v>4.060794349419151</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05183992786492542</v>
+        <v>0.05183992786492541</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.658871368616</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K12" t="n">
         <v>93.45971258550371</v>
@@ -35503,13 +35503,13 @@
         <v>209.4665802750704</v>
       </c>
       <c r="O12" t="n">
-        <v>319.9958482165468</v>
+        <v>177.0322439101755</v>
       </c>
       <c r="P12" t="n">
         <v>129.3905558447896</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.1515142695033</v>
+        <v>85.41310344483698</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>24.80539155282472</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>193.0807040391009</v>
+        <v>26.56042854144297</v>
       </c>
       <c r="L13" t="n">
         <v>307.0838582058515</v>
       </c>
       <c r="M13" t="n">
-        <v>58.67755312987468</v>
+        <v>289.3081526902756</v>
       </c>
       <c r="N13" t="n">
-        <v>319.9958482165468</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="O13" t="n">
-        <v>44.33778308027881</v>
+        <v>298.6827826110555</v>
       </c>
       <c r="P13" t="n">
-        <v>236.0334361904526</v>
+        <v>25.42319742054849</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.03969327079038</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>24.658871368616</v>
       </c>
       <c r="K15" t="n">
-        <v>93.45971258550371</v>
+        <v>111.2352300287436</v>
       </c>
       <c r="L15" t="n">
-        <v>273.9488274848294</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="M15" t="n">
         <v>194.8492782622619</v>
       </c>
       <c r="N15" t="n">
-        <v>319.9958482165469</v>
+        <v>209.4665802750704</v>
       </c>
       <c r="O15" t="n">
         <v>177.0322439101755</v>
@@ -35749,7 +35749,7 @@
         <v>53.71893001299803</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>46.70672976651927</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>37.11869902876166</v>
       </c>
       <c r="K16" t="n">
-        <v>26.56042854144297</v>
+        <v>193.0807040391009</v>
       </c>
       <c r="L16" t="n">
-        <v>53.62332380102666</v>
+        <v>307.0838582058515</v>
       </c>
       <c r="M16" t="n">
-        <v>319.9958482165469</v>
+        <v>58.67755312987468</v>
       </c>
       <c r="N16" t="n">
-        <v>249.118755054406</v>
+        <v>62.44131372264658</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6827826110555</v>
+        <v>289.5790100982426</v>
       </c>
       <c r="P16" t="n">
         <v>236.0334361904526</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>62.14648951840314</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K17" t="n">
         <v>126.4546465179338</v>
@@ -35898,16 +35898,16 @@
         <v>228.9355144607123</v>
       </c>
       <c r="O17" t="n">
-        <v>460.3168525509392</v>
+        <v>403.7666053846225</v>
       </c>
       <c r="P17" t="n">
-        <v>457.0970383612479</v>
+        <v>154.3775692013206</v>
       </c>
       <c r="Q17" t="n">
         <v>84.30255426075752</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>95.47899665781055</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.658871368616</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K18" t="n">
-        <v>93.45971258550371</v>
+        <v>306.3410691918075</v>
       </c>
       <c r="L18" t="n">
         <v>156.0819068634291</v>
@@ -35974,10 +35974,10 @@
         <v>194.8492782622619</v>
       </c>
       <c r="N18" t="n">
-        <v>460.3168525509392</v>
+        <v>209.4665802750704</v>
       </c>
       <c r="O18" t="n">
-        <v>382.4720731381655</v>
+        <v>177.0322439101755</v>
       </c>
       <c r="P18" t="n">
         <v>129.3905558447896</v>
@@ -35986,7 +35986,7 @@
         <v>381.4394988809227</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>46.70672976651927</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.11869902876029</v>
+        <v>37.11869902876166</v>
       </c>
       <c r="K19" t="n">
         <v>193.0807040391009</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.14648951840314</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K20" t="n">
         <v>126.4546465179338</v>
@@ -36135,13 +36135,13 @@
         <v>228.9355144607123</v>
       </c>
       <c r="O20" t="n">
-        <v>361.6180417034386</v>
+        <v>207.4218399019592</v>
       </c>
       <c r="P20" t="n">
-        <v>460.3168525509396</v>
+        <v>154.3775692013206</v>
       </c>
       <c r="Q20" t="n">
-        <v>84.30255426075752</v>
+        <v>280.6473197434208</v>
       </c>
       <c r="R20" t="n">
         <v>95.47899665781055</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.658871368616</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K21" t="n">
-        <v>93.45971258550371</v>
+        <v>353.0477989583267</v>
       </c>
       <c r="L21" t="n">
         <v>156.0819068634291</v>
@@ -36211,13 +36211,13 @@
         <v>194.8492782622619</v>
       </c>
       <c r="N21" t="n">
-        <v>334.830385072781</v>
+        <v>209.4665802750704</v>
       </c>
       <c r="O21" t="n">
         <v>177.0322439101755</v>
       </c>
       <c r="P21" t="n">
-        <v>460.3168525509396</v>
+        <v>129.3905558447896</v>
       </c>
       <c r="Q21" t="n">
         <v>381.4394988809227</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>88.63150441640408</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K23" t="n">
-        <v>565.5176303541519</v>
+        <v>126.4546465179338</v>
       </c>
       <c r="L23" t="n">
         <v>181.1066003929232</v>
@@ -36375,10 +36375,10 @@
         <v>207.4218399019592</v>
       </c>
       <c r="P23" t="n">
-        <v>565.5176303541519</v>
+        <v>436.063523990484</v>
       </c>
       <c r="Q23" t="n">
-        <v>84.30255426075752</v>
+        <v>415.5139396902088</v>
       </c>
       <c r="R23" t="n">
         <v>95.47899665781055</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.658871368616</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K24" t="n">
-        <v>93.45971258550371</v>
+        <v>506.0254823251264</v>
       </c>
       <c r="L24" t="n">
         <v>156.0819068634291</v>
       </c>
       <c r="M24" t="n">
-        <v>565.5176303541519</v>
+        <v>194.8492782622619</v>
       </c>
       <c r="N24" t="n">
         <v>209.4665802750704</v>
       </c>
       <c r="O24" t="n">
-        <v>565.5176303541519</v>
+        <v>177.0322439101755</v>
       </c>
       <c r="P24" t="n">
-        <v>196.3727637822165</v>
+        <v>392.9654472139412</v>
       </c>
       <c r="Q24" t="n">
         <v>381.4394988809227</v>
       </c>
       <c r="R24" t="n">
-        <v>46.70672976651927</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>62.14648951840314</v>
       </c>
       <c r="K26" t="n">
-        <v>126.4546465179338</v>
+        <v>565.5176303541518</v>
       </c>
       <c r="L26" t="n">
         <v>181.1066003929232</v>
       </c>
       <c r="M26" t="n">
-        <v>446.7539329303005</v>
+        <v>222.3090534317109</v>
       </c>
       <c r="N26" t="n">
-        <v>565.5176303541518</v>
+        <v>228.9355144607123</v>
       </c>
       <c r="O26" t="n">
         <v>207.4218399019592</v>
@@ -36615,7 +36615,7 @@
         <v>565.5176303541518</v>
       </c>
       <c r="Q26" t="n">
-        <v>84.30255426075752</v>
+        <v>206.2665658165687</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>24.658871368616</v>
       </c>
       <c r="K27" t="n">
-        <v>93.45971258550371</v>
+        <v>506.0254823251264</v>
       </c>
       <c r="L27" t="n">
         <v>156.0819068634291</v>
       </c>
       <c r="M27" t="n">
-        <v>228.8071001471113</v>
+        <v>194.8492782622619</v>
       </c>
       <c r="N27" t="n">
-        <v>565.5176303541518</v>
+        <v>209.4665802750704</v>
       </c>
       <c r="O27" t="n">
         <v>177.0322439101755</v>
@@ -36697,7 +36697,7 @@
         <v>381.4394988809227</v>
       </c>
       <c r="R27" t="n">
-        <v>46.70672976651927</v>
+        <v>24.14983199082737</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>62.14648951840314</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K29" t="n">
-        <v>126.4546465179338</v>
+        <v>503.6195979649077</v>
       </c>
       <c r="L29" t="n">
-        <v>565.5176303541518</v>
+        <v>181.1066003929232</v>
       </c>
       <c r="M29" t="n">
-        <v>356.4902929053393</v>
+        <v>222.3090534317109</v>
       </c>
       <c r="N29" t="n">
         <v>228.9355144607123</v>
       </c>
       <c r="O29" t="n">
-        <v>565.5176303541518</v>
+        <v>207.4218399019592</v>
       </c>
       <c r="P29" t="n">
         <v>154.3775692013206</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.30255426075752</v>
+        <v>415.5139396902088</v>
       </c>
       <c r="R29" t="n">
-        <v>95.47899665781055</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.658871368616</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K30" t="n">
-        <v>93.45971258550371</v>
+        <v>506.0254823251264</v>
       </c>
       <c r="L30" t="n">
-        <v>565.5176303541518</v>
+        <v>156.0819068634291</v>
       </c>
       <c r="M30" t="n">
         <v>194.8492782622619</v>
       </c>
       <c r="N30" t="n">
-        <v>565.5176303541518</v>
+        <v>473.0414716442219</v>
       </c>
       <c r="O30" t="n">
-        <v>237.6814168136641</v>
+        <v>177.0322439101755</v>
       </c>
       <c r="P30" t="n">
         <v>129.3905558447896</v>
@@ -36934,7 +36934,7 @@
         <v>381.4394988809227</v>
       </c>
       <c r="R30" t="n">
-        <v>46.70672976651927</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>62.14648951840314</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K32" t="n">
-        <v>344.273064987522</v>
+        <v>126.4546465179337</v>
       </c>
       <c r="L32" t="n">
-        <v>181.1066003929232</v>
+        <v>181.1066003929231</v>
       </c>
       <c r="M32" t="n">
-        <v>565.5176303541518</v>
+        <v>222.3090534317108</v>
       </c>
       <c r="N32" t="n">
         <v>228.9355144607123</v>
       </c>
       <c r="O32" t="n">
-        <v>207.4218399019592</v>
+        <v>207.4218399019591</v>
       </c>
       <c r="P32" t="n">
         <v>565.5176303541518</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.30255426075752</v>
+        <v>381.538829984352</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.658871368616</v>
+        <v>24.65887136861599</v>
       </c>
       <c r="K33" t="n">
-        <v>93.45971258550371</v>
+        <v>506.0254823251263</v>
       </c>
       <c r="L33" t="n">
         <v>156.0819068634291</v>
       </c>
       <c r="M33" t="n">
-        <v>196.3727637822164</v>
+        <v>194.8492782622619</v>
       </c>
       <c r="N33" t="n">
-        <v>209.4665802750704</v>
+        <v>209.4665802750703</v>
       </c>
       <c r="O33" t="n">
-        <v>565.5176303541518</v>
+        <v>177.0322439101755</v>
       </c>
       <c r="P33" t="n">
         <v>565.5176303541518</v>
       </c>
       <c r="Q33" t="n">
-        <v>381.4394988809227</v>
+        <v>381.4394988809226</v>
       </c>
       <c r="R33" t="n">
-        <v>46.70672976651927</v>
+        <v>24.14983199082782</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>37.11869902876166</v>
+        <v>37.11869902876165</v>
       </c>
       <c r="K34" t="n">
         <v>193.0807040391009</v>
@@ -37247,7 +37247,7 @@
         <v>236.0334361904526</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.03969327079038</v>
+        <v>83.03969327079037</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>325.9372091868382</v>
+        <v>191.0705892400501</v>
       </c>
       <c r="K35" t="n">
-        <v>126.4546465179338</v>
+        <v>126.4546465179337</v>
       </c>
       <c r="L35" t="n">
-        <v>460.3168525509396</v>
+        <v>181.1066003929231</v>
       </c>
       <c r="M35" t="n">
-        <v>234.9225634141683</v>
+        <v>222.3090534317108</v>
       </c>
       <c r="N35" t="n">
         <v>228.9355144607123</v>
       </c>
       <c r="O35" t="n">
-        <v>207.4218399019592</v>
+        <v>207.4218399019591</v>
       </c>
       <c r="P35" t="n">
         <v>154.3775692013206</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.30255426075752</v>
+        <v>415.5139396902088</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>95.47899665781053</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.658871368616</v>
+        <v>24.65887136861599</v>
       </c>
       <c r="K36" t="n">
-        <v>93.45971258550371</v>
+        <v>460.3168525509395</v>
       </c>
       <c r="L36" t="n">
-        <v>156.0819068634291</v>
+        <v>460.3168525509395</v>
       </c>
       <c r="M36" t="n">
         <v>194.8492782622619</v>
       </c>
       <c r="N36" t="n">
-        <v>209.4665802750704</v>
+        <v>209.4665802750703</v>
       </c>
       <c r="O36" t="n">
-        <v>460.3168525509396</v>
+        <v>177.0322439101755</v>
       </c>
       <c r="P36" t="n">
-        <v>255.6893189413668</v>
+        <v>242.3091405636284</v>
       </c>
       <c r="Q36" t="n">
-        <v>381.4394988809227</v>
+        <v>53.718930012998</v>
       </c>
       <c r="R36" t="n">
-        <v>46.70672976651927</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>37.11869902876166</v>
+        <v>37.11869902876165</v>
       </c>
       <c r="K37" t="n">
         <v>193.0807040391009</v>
@@ -37484,7 +37484,7 @@
         <v>236.0334361904526</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.03969327079038</v>
+        <v>83.03969327079037</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>62.14648951840317</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K38" t="n">
         <v>126.4546465179338</v>
@@ -37551,19 +37551,19 @@
         <v>181.1066003929232</v>
       </c>
       <c r="M38" t="n">
-        <v>222.309053431711</v>
+        <v>222.3090534317109</v>
       </c>
       <c r="N38" t="n">
-        <v>228.9355144607124</v>
+        <v>228.9355144607123</v>
       </c>
       <c r="O38" t="n">
-        <v>431.8249362814165</v>
+        <v>207.4218399019592</v>
       </c>
       <c r="P38" t="n">
-        <v>154.3775692013207</v>
+        <v>154.3775692013206</v>
       </c>
       <c r="Q38" t="n">
-        <v>415.5139396902089</v>
+        <v>376.1263164012308</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.65887136861603</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K39" t="n">
-        <v>93.45971258550377</v>
+        <v>353.0477989583263</v>
       </c>
       <c r="L39" t="n">
-        <v>156.0819068634292</v>
+        <v>156.0819068634291</v>
       </c>
       <c r="M39" t="n">
-        <v>460.3168525509396</v>
+        <v>194.8492782622619</v>
       </c>
       <c r="N39" t="n">
-        <v>398.0183379508944</v>
+        <v>209.4665802750704</v>
       </c>
       <c r="O39" t="n">
-        <v>460.3168525509396</v>
+        <v>177.0322439101755</v>
       </c>
       <c r="P39" t="n">
-        <v>129.3905558447897</v>
+        <v>129.3905558447896</v>
       </c>
       <c r="Q39" t="n">
-        <v>53.71893001299806</v>
+        <v>381.4394988809227</v>
       </c>
       <c r="R39" t="n">
-        <v>46.70672976651929</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>37.11869902876168</v>
+        <v>37.11869902876166</v>
       </c>
       <c r="K40" t="n">
-        <v>193.080704039101</v>
+        <v>193.0807040391009</v>
       </c>
       <c r="L40" t="n">
-        <v>307.0838582058516</v>
+        <v>307.0838582058515</v>
       </c>
       <c r="M40" t="n">
-        <v>337.1526241486099</v>
+        <v>337.1526241486093</v>
       </c>
       <c r="N40" t="n">
-        <v>330.476952000007</v>
+        <v>330.4769520000069</v>
       </c>
       <c r="O40" t="n">
         <v>298.6827826110555</v>
@@ -37721,7 +37721,7 @@
         <v>236.0334361904526</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.03969327079041</v>
+        <v>83.03969327079038</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>62.14648951840317</v>
+        <v>62.14648951840314</v>
       </c>
       <c r="K41" t="n">
         <v>126.4546465179338</v>
@@ -37788,19 +37788,19 @@
         <v>181.1066003929232</v>
       </c>
       <c r="M41" t="n">
-        <v>222.309053431711</v>
+        <v>222.3090534317109</v>
       </c>
       <c r="N41" t="n">
-        <v>228.9355144607124</v>
+        <v>228.9355144607123</v>
       </c>
       <c r="O41" t="n">
-        <v>207.4218399019593</v>
+        <v>207.4218399019592</v>
       </c>
       <c r="P41" t="n">
-        <v>154.3775692013207</v>
+        <v>154.3775692013206</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.30255426075757</v>
+        <v>84.30255426075752</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.65887136861603</v>
+        <v>206.3483301649733</v>
       </c>
       <c r="K42" t="n">
-        <v>93.45971258550377</v>
+        <v>93.45971258550371</v>
       </c>
       <c r="L42" t="n">
-        <v>156.0819068634292</v>
+        <v>156.0819068634291</v>
       </c>
       <c r="M42" t="n">
-        <v>194.849278262262</v>
+        <v>194.8492782622619</v>
       </c>
       <c r="N42" t="n">
-        <v>247.2574764661897</v>
+        <v>209.4665802750704</v>
       </c>
       <c r="O42" t="n">
-        <v>177.0322439101756</v>
+        <v>177.0322439101755</v>
       </c>
       <c r="P42" t="n">
-        <v>319.995848216547</v>
+        <v>129.3905558447896</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.71893001299806</v>
+        <v>53.71893001299803</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>46.70672976651927</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>37.11869902876166</v>
       </c>
       <c r="K43" t="n">
-        <v>26.560428541443</v>
+        <v>193.0807040391009</v>
       </c>
       <c r="L43" t="n">
-        <v>53.62332380102669</v>
+        <v>307.0838582058515</v>
       </c>
       <c r="M43" t="n">
-        <v>319.995848216547</v>
+        <v>58.67755312987468</v>
       </c>
       <c r="N43" t="n">
-        <v>319.995848216547</v>
+        <v>62.44131372264658</v>
       </c>
       <c r="O43" t="n">
-        <v>298.6827826110555</v>
+        <v>289.5790100982426</v>
       </c>
       <c r="P43" t="n">
         <v>236.0334361904526</v>
       </c>
       <c r="Q43" t="n">
-        <v>12.16260010864948</v>
+        <v>83.03969327079038</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>62.14648951840317</v>
+        <v>62.14648951840314</v>
       </c>
       <c r="K44" t="n">
         <v>126.4546465179338</v>
@@ -38025,19 +38025,19 @@
         <v>181.1066003929232</v>
       </c>
       <c r="M44" t="n">
-        <v>222.309053431711</v>
+        <v>222.3090534317109</v>
       </c>
       <c r="N44" t="n">
-        <v>228.9355144607124</v>
+        <v>228.9355144607123</v>
       </c>
       <c r="O44" t="n">
-        <v>207.4218399019593</v>
+        <v>207.4218399019592</v>
       </c>
       <c r="P44" t="n">
-        <v>154.3775692013207</v>
+        <v>154.3775692013206</v>
       </c>
       <c r="Q44" t="n">
-        <v>84.30255426075757</v>
+        <v>84.30255426075752</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.65887136861603</v>
+        <v>206.3483301649733</v>
       </c>
       <c r="K45" t="n">
-        <v>93.45971258550377</v>
+        <v>93.45971258550371</v>
       </c>
       <c r="L45" t="n">
-        <v>319.9958482165466</v>
+        <v>156.0819068634291</v>
       </c>
       <c r="M45" t="n">
-        <v>194.849278262262</v>
+        <v>194.8492782622619</v>
       </c>
       <c r="N45" t="n">
         <v>209.4665802750704</v>
       </c>
       <c r="O45" t="n">
-        <v>194.8077613534139</v>
+        <v>177.0322439101755</v>
       </c>
       <c r="P45" t="n">
-        <v>129.3905558447897</v>
+        <v>129.3905558447896</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.71893001299806</v>
+        <v>53.71893001299803</v>
       </c>
       <c r="R45" t="n">
-        <v>46.70672976651929</v>
+        <v>46.70672976651927</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>26.560428541443</v>
+        <v>193.0807040391009</v>
       </c>
       <c r="L46" t="n">
-        <v>307.0838582058516</v>
+        <v>307.0838582058515</v>
       </c>
       <c r="M46" t="n">
-        <v>319.9958482165466</v>
+        <v>319.9958482165468</v>
       </c>
       <c r="N46" t="n">
-        <v>319.9958482165466</v>
+        <v>62.44131372264658</v>
       </c>
       <c r="O46" t="n">
-        <v>267.9950870847837</v>
+        <v>298.6827826110555</v>
       </c>
       <c r="P46" t="n">
-        <v>25.42319742054852</v>
+        <v>85.76976089051954</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
